--- a/resultados_completos2.xlsx
+++ b/resultados_completos2.xlsx
@@ -500,25 +500,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-30.73891963155909</v>
+        <v>89.90750026259501</v>
       </c>
       <c r="D2" t="n">
-        <v>38.70495265876546</v>
+        <v>-89.89259065761401</v>
       </c>
       <c r="E2" t="n">
-        <v>69.44387229032455</v>
+        <v>179.800090920209</v>
       </c>
       <c r="F2" t="n">
-        <v>3911.576363492</v>
+        <v>366.6683394835591</v>
       </c>
       <c r="G2" t="n">
-        <v>5044.365261527168</v>
+        <v>58.63389410766994</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1264846227749662</v>
+        <v>0.7242718731450407</v>
       </c>
       <c r="I2" t="n">
-        <v>1.04</v>
+        <v>0.2900763358778626</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
@@ -537,25 +537,25 @@
         <v>4.869023273931249e-05</v>
       </c>
       <c r="C3" t="n">
-        <v>-30.38053770419105</v>
+        <v>89.8787428315933</v>
       </c>
       <c r="D3" t="n">
-        <v>43.8366389864975</v>
+        <v>-89.87856754950451</v>
       </c>
       <c r="E3" t="n">
-        <v>74.21717669068855</v>
+        <v>179.7573103810978</v>
       </c>
       <c r="F3" t="n">
-        <v>5642.021182926792</v>
+        <v>105.0276109071696</v>
       </c>
       <c r="G3" t="n">
-        <v>6724.853603456043</v>
+        <v>105.0276109071696</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08755909954886563</v>
+        <v>6.765294665115491e-17</v>
       </c>
       <c r="I3" t="n">
-        <v>1.04</v>
+        <v>0.4351145038167938</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
@@ -574,25 +574,25 @@
         <v>9.738046547862498e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>-34.66886114026173</v>
+        <v>89.99718437065317</v>
       </c>
       <c r="D4" t="n">
-        <v>34.74218810946989</v>
+        <v>-89.99310144520769</v>
       </c>
       <c r="E4" t="n">
-        <v>69.41104924973163</v>
+        <v>179.9902858158609</v>
       </c>
       <c r="F4" t="n">
-        <v>5160.014179839196</v>
+        <v>1217.423516191456</v>
       </c>
       <c r="G4" t="n">
-        <v>6255.593409447321</v>
+        <v>1200.904021829024</v>
       </c>
       <c r="H4" t="n">
-        <v>0.09597204713276236</v>
+        <v>0.006830958215012684</v>
       </c>
       <c r="I4" t="n">
-        <v>1.054054054054054</v>
+        <v>0.5114503816793894</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
@@ -611,25 +611,25 @@
         <v>0.0001460706982179375</v>
       </c>
       <c r="C5" t="n">
-        <v>-30.29774772088459</v>
+        <v>89.53588601040003</v>
       </c>
       <c r="D5" t="n">
-        <v>28.6836001526821</v>
+        <v>-89.99325507095293</v>
       </c>
       <c r="E5" t="n">
-        <v>58.98134787356669</v>
+        <v>179.529141081353</v>
       </c>
       <c r="F5" t="n">
-        <v>6897.48236798594</v>
+        <v>1755.432608078406</v>
       </c>
       <c r="G5" t="n">
-        <v>7437.315693777915</v>
+        <v>1879.718463917815</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03765894179087933</v>
+        <v>0.03419001119289337</v>
       </c>
       <c r="I5" t="n">
-        <v>1.04</v>
+        <v>0.5648854961832062</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
@@ -648,25 +648,25 @@
         <v>0.00019476093095725</v>
       </c>
       <c r="C6" t="n">
-        <v>-31.52617522444914</v>
+        <v>-88.39279927340739</v>
       </c>
       <c r="D6" t="n">
-        <v>34.3951548768843</v>
+        <v>72.4561351609359</v>
       </c>
       <c r="E6" t="n">
-        <v>65.92133010133344</v>
+        <v>160.8489344343433</v>
       </c>
       <c r="F6" t="n">
-        <v>6227.005739618889</v>
+        <v>4227.458537653899</v>
       </c>
       <c r="G6" t="n">
-        <v>6277.993906069069</v>
+        <v>3663.401628095887</v>
       </c>
       <c r="H6" t="n">
-        <v>0.004077422462603673</v>
+        <v>0.07148230962275776</v>
       </c>
       <c r="I6" t="n">
-        <v>1.054054054054054</v>
+        <v>0.5877862595419847</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
@@ -685,30 +685,30 @@
         <v>0.0002434511636965625</v>
       </c>
       <c r="C7" t="n">
-        <v>-28.63328287282332</v>
+        <v>89.80686832885495</v>
       </c>
       <c r="D7" t="n">
-        <v>35.42013560572728</v>
+        <v>-89.81818937766521</v>
       </c>
       <c r="E7" t="n">
-        <v>64.0534184785506</v>
+        <v>179.6250577065202</v>
       </c>
       <c r="F7" t="n">
-        <v>6206.413595848289</v>
+        <v>3198.185271684031</v>
       </c>
       <c r="G7" t="n">
-        <v>7961.069525901145</v>
+        <v>3094.490961385175</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1238509278588211</v>
+        <v>0.01647857071589397</v>
       </c>
       <c r="I7" t="n">
-        <v>1.040540540540541</v>
+        <v>0.5877862595419847</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Dinámico</t>
+          <t>Estático</t>
         </is>
       </c>
     </row>
@@ -722,30 +722,30 @@
         <v>0.000292141396435875</v>
       </c>
       <c r="C8" t="n">
-        <v>-38.12786412669526</v>
+        <v>89.6514987291968</v>
       </c>
       <c r="D8" t="n">
-        <v>31.37006209583113</v>
+        <v>-89.6522748861463</v>
       </c>
       <c r="E8" t="n">
-        <v>69.4979262225264</v>
+        <v>179.3037736153431</v>
       </c>
       <c r="F8" t="n">
-        <v>2700.848596528245</v>
+        <v>3344.605877817608</v>
       </c>
       <c r="G8" t="n">
-        <v>3941.537415567654</v>
+        <v>3328.086235335327</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1867836070924052</v>
+        <v>0.002475708784722482</v>
       </c>
       <c r="I8" t="n">
-        <v>1.026666666666667</v>
+        <v>0.5877862595419847</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Dinámico</t>
+          <t>Estático</t>
         </is>
       </c>
     </row>
@@ -759,30 +759,30 @@
         <v>0.0003408316291751875</v>
       </c>
       <c r="C9" t="n">
-        <v>-33.89274191228185</v>
+        <v>89.96272739194035</v>
       </c>
       <c r="D9" t="n">
-        <v>41.43800236673084</v>
+        <v>-89.98550448172114</v>
       </c>
       <c r="E9" t="n">
-        <v>75.33074427901269</v>
+        <v>179.9482318736615</v>
       </c>
       <c r="F9" t="n">
-        <v>3810.93189310655</v>
+        <v>4439.197856567715</v>
       </c>
       <c r="G9" t="n">
-        <v>5030.993845937074</v>
+        <v>4356.562846029199</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1379859986205325</v>
+        <v>0.009394867974764099</v>
       </c>
       <c r="I9" t="n">
-        <v>1.04054054054054</v>
+        <v>0.5877862595419847</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Dinámico</t>
+          <t>Estático</t>
         </is>
       </c>
     </row>
@@ -796,25 +796,25 @@
         <v>0.0003895218619144999</v>
       </c>
       <c r="C10" t="n">
-        <v>-29.26146650495025</v>
+        <v>89.57959690963911</v>
       </c>
       <c r="D10" t="n">
-        <v>36.99797829471643</v>
+        <v>-89.50695861866556</v>
       </c>
       <c r="E10" t="n">
-        <v>66.25944479966668</v>
+        <v>179.0865555283047</v>
       </c>
       <c r="F10" t="n">
-        <v>4993.037132755524</v>
+        <v>4304.969580384725</v>
       </c>
       <c r="G10" t="n">
-        <v>6134.608769767723</v>
+        <v>5910.195688692671</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1025887817614094</v>
+        <v>0.1571414721176533</v>
       </c>
       <c r="I10" t="n">
-        <v>1.026666666666667</v>
+        <v>0.5801526717557252</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
@@ -833,30 +833,30 @@
         <v>0.0004382120946538125</v>
       </c>
       <c r="C11" t="n">
-        <v>-37.40666107421553</v>
+        <v>89.74128386733695</v>
       </c>
       <c r="D11" t="n">
-        <v>36.01724440120715</v>
+        <v>-89.6605459485296</v>
       </c>
       <c r="E11" t="n">
-        <v>73.42390547542269</v>
+        <v>179.4018298158666</v>
       </c>
       <c r="F11" t="n">
-        <v>6132.050301923378</v>
+        <v>6091.280729779553</v>
       </c>
       <c r="G11" t="n">
-        <v>7269.416240400895</v>
+        <v>6684.838499802649</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0848687667790318</v>
+        <v>0.04645837748983698</v>
       </c>
       <c r="I11" t="n">
-        <v>1.040540540540541</v>
+        <v>0.5801526717557252</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Dinámico</t>
+          <t>Estático</t>
         </is>
       </c>
     </row>
@@ -870,25 +870,25 @@
         <v>0.0004869023273931249</v>
       </c>
       <c r="C12" t="n">
-        <v>-28.15703016333893</v>
+        <v>89.52695951365826</v>
       </c>
       <c r="D12" t="n">
-        <v>34.77180211383835</v>
+        <v>-89.51127735944438</v>
       </c>
       <c r="E12" t="n">
-        <v>62.92883227717728</v>
+        <v>179.0382368731026</v>
       </c>
       <c r="F12" t="n">
-        <v>6823.18863540235</v>
+        <v>3904.533388947223</v>
       </c>
       <c r="G12" t="n">
-        <v>7417.179526683864</v>
+        <v>4432.031153037247</v>
       </c>
       <c r="H12" t="n">
-        <v>0.04171176506959733</v>
+        <v>0.06327519704711079</v>
       </c>
       <c r="I12" t="n">
-        <v>1.026666666666667</v>
+        <v>0.6104417670682731</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
@@ -907,25 +907,25 @@
         <v>0.0005355925601324374</v>
       </c>
       <c r="C13" t="n">
-        <v>-27.35258651157813</v>
+        <v>89.99380118060444</v>
       </c>
       <c r="D13" t="n">
-        <v>44.83389820821564</v>
+        <v>-89.96170683986578</v>
       </c>
       <c r="E13" t="n">
-        <v>72.18648471979378</v>
+        <v>179.9555080204702</v>
       </c>
       <c r="F13" t="n">
-        <v>3462.833101936801</v>
+        <v>3462.833101936802</v>
       </c>
       <c r="G13" t="n">
         <v>5217.655267500805</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2021570781365722</v>
+        <v>0.2021570781365721</v>
       </c>
       <c r="I13" t="n">
-        <v>1.040540540540541</v>
+        <v>0.6553191489361703</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
@@ -944,25 +944,25 @@
         <v>0.0005842827928717499</v>
       </c>
       <c r="C14" t="n">
-        <v>-33.92504044909449</v>
+        <v>89.0690896724762</v>
       </c>
       <c r="D14" t="n">
-        <v>35.03452665876618</v>
+        <v>-89.28308331891294</v>
       </c>
       <c r="E14" t="n">
-        <v>68.95956710786066</v>
+        <v>178.3521729913891</v>
       </c>
       <c r="F14" t="n">
-        <v>5024.492111943473</v>
+        <v>3761.242645585879</v>
       </c>
       <c r="G14" t="n">
-        <v>5087.374929969828</v>
+        <v>4993.726502562813</v>
       </c>
       <c r="H14" t="n">
-        <v>0.006218714878835779</v>
+        <v>0.1407753512458182</v>
       </c>
       <c r="I14" t="n">
-        <v>1.026666666666667</v>
+        <v>0.7031963470319634</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
@@ -981,25 +981,25 @@
         <v>0.0006329730256110624</v>
       </c>
       <c r="C15" t="n">
-        <v>-39.42211101165837</v>
+        <v>89.94376022534175</v>
       </c>
       <c r="D15" t="n">
-        <v>43.37801796519694</v>
+        <v>-89.25522003640145</v>
       </c>
       <c r="E15" t="n">
-        <v>82.80012897685532</v>
+        <v>179.1989802617432</v>
       </c>
       <c r="F15" t="n">
-        <v>5656.008229899629</v>
+        <v>5656.00822989963</v>
       </c>
       <c r="G15" t="n">
         <v>7266.200975724028</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1246066148753925</v>
+        <v>0.1246066148753924</v>
       </c>
       <c r="I15" t="n">
-        <v>1.040540540540541</v>
+        <v>0.751219512195122</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
@@ -1018,25 +1018,25 @@
         <v>0.0006816632583503749</v>
       </c>
       <c r="C16" t="n">
-        <v>-33.53140310226145</v>
+        <v>88.49264237721152</v>
       </c>
       <c r="D16" t="n">
-        <v>35.12432314690408</v>
+        <v>-88.74945506732564</v>
       </c>
       <c r="E16" t="n">
-        <v>68.65572624916553</v>
+        <v>177.2420974445372</v>
       </c>
       <c r="F16" t="n">
-        <v>4492.177987387482</v>
+        <v>4546.341218179256</v>
       </c>
       <c r="G16" t="n">
-        <v>4443.147466462748</v>
+        <v>5604.590922550218</v>
       </c>
       <c r="H16" t="n">
-        <v>0.00548726749551212</v>
+        <v>0.104251480524124</v>
       </c>
       <c r="I16" t="n">
-        <v>1.026666666666667</v>
+        <v>0.8148148148148149</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
@@ -1055,25 +1055,25 @@
         <v>0.0007303534910896875</v>
       </c>
       <c r="C17" t="n">
-        <v>-33.18155736647391</v>
+        <v>87.96889824559457</v>
       </c>
       <c r="D17" t="n">
-        <v>36.40810981050391</v>
+        <v>-87.45028267635489</v>
       </c>
       <c r="E17" t="n">
-        <v>69.58966717697783</v>
+        <v>175.4191809219495</v>
       </c>
       <c r="F17" t="n">
-        <v>6094.791683212463</v>
+        <v>4634.120976108987</v>
       </c>
       <c r="G17" t="n">
-        <v>6021.322420556007</v>
+        <v>5683.993786288066</v>
       </c>
       <c r="H17" t="n">
-        <v>0.006063764506278832</v>
+        <v>0.1017504490263276</v>
       </c>
       <c r="I17" t="n">
-        <v>1.026666666666667</v>
+        <v>0.88</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
@@ -1092,25 +1092,25 @@
         <v>0.0007790437238289999</v>
       </c>
       <c r="C18" t="n">
-        <v>-36.05750235472723</v>
+        <v>-58.66016489061569</v>
       </c>
       <c r="D18" t="n">
-        <v>34.31762602039083</v>
+        <v>58.16691209574323</v>
       </c>
       <c r="E18" t="n">
-        <v>70.37512837511807</v>
+        <v>116.8270769863589</v>
       </c>
       <c r="F18" t="n">
-        <v>4441.325322328981</v>
+        <v>3914.666559705863</v>
       </c>
       <c r="G18" t="n">
-        <v>6063.558820245406</v>
+        <v>4404.962970066045</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1544265958480976</v>
+        <v>0.05893248114061446</v>
       </c>
       <c r="I18" t="n">
-        <v>1.013333333333333</v>
+        <v>0.9685534591194969</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
@@ -1129,25 +1129,25 @@
         <v>0.0008277339565683124</v>
       </c>
       <c r="C19" t="n">
-        <v>-38.54254098488333</v>
+        <v>-27.9590086444146</v>
       </c>
       <c r="D19" t="n">
-        <v>37.7443116815552</v>
+        <v>40.10522068119808</v>
       </c>
       <c r="E19" t="n">
-        <v>76.28685266643853</v>
+        <v>68.06422932561267</v>
       </c>
       <c r="F19" t="n">
-        <v>9376.079653840206</v>
+        <v>4435.301383583978</v>
       </c>
       <c r="G19" t="n">
-        <v>11208.18902479896</v>
+        <v>5019.805406245487</v>
       </c>
       <c r="H19" t="n">
-        <v>0.08900531758313</v>
+        <v>0.0618188705483728</v>
       </c>
       <c r="I19" t="n">
-        <v>0.5384615384615387</v>
+        <v>1.076923076923077</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
@@ -1166,25 +1166,25 @@
         <v>0.0008764241893076249</v>
       </c>
       <c r="C20" t="n">
-        <v>-37.7293487840998</v>
+        <v>-17.87209187105398</v>
       </c>
       <c r="D20" t="n">
-        <v>32.41518688192603</v>
+        <v>-4.321633884207664</v>
       </c>
       <c r="E20" t="n">
-        <v>70.14453566602583</v>
+        <v>13.55045798684632</v>
       </c>
       <c r="F20" t="n">
-        <v>11330.22579746504</v>
+        <v>5369.456448217998</v>
       </c>
       <c r="G20" t="n">
-        <v>12327.24021549843</v>
+        <v>6276.031681325966</v>
       </c>
       <c r="H20" t="n">
-        <v>0.04214375358236019</v>
+        <v>0.07784776584916496</v>
       </c>
       <c r="I20" t="n">
-        <v>0.6093750000000001</v>
+        <v>1.209302325581395</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
@@ -1203,25 +1203,25 @@
         <v>0.0009251144220469374</v>
       </c>
       <c r="C21" t="n">
-        <v>-36.84877373032533</v>
+        <v>-17.60076237745072</v>
       </c>
       <c r="D21" t="n">
-        <v>25.28888147451798</v>
+        <v>13.80377148145526</v>
       </c>
       <c r="E21" t="n">
-        <v>62.13765520484331</v>
+        <v>31.40453385890598</v>
       </c>
       <c r="F21" t="n">
-        <v>6982.598434156489</v>
+        <v>2372.249596393654</v>
       </c>
       <c r="G21" t="n">
-        <v>9804.178718049287</v>
+        <v>4060.561585633517</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1680835015744546</v>
+        <v>0.2624532170253792</v>
       </c>
       <c r="I21" t="n">
-        <v>0.7543859649122808</v>
+        <v>1.495652173913044</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
@@ -1240,25 +1240,25 @@
         <v>0.0009738046547862498</v>
       </c>
       <c r="C22" t="n">
-        <v>-37.74714939154065</v>
+        <v>-26.77425860563072</v>
       </c>
       <c r="D22" t="n">
-        <v>37.16093074337344</v>
+        <v>8.048910544158334</v>
       </c>
       <c r="E22" t="n">
-        <v>74.90808013491409</v>
+        <v>34.82316914978906</v>
       </c>
       <c r="F22" t="n">
-        <v>7196.619066880299</v>
+        <v>4690.162996666813</v>
       </c>
       <c r="G22" t="n">
-        <v>7964.991988378861</v>
+        <v>4732.892328613319</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0506788440026651</v>
+        <v>0.004534551742667917</v>
       </c>
       <c r="I22" t="n">
-        <v>0.8932038834951457</v>
+        <v>1.752380952380952</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
@@ -1277,25 +1277,25 @@
         <v>0.001022494887525562</v>
       </c>
       <c r="C23" t="n">
-        <v>-15.13600393275698</v>
+        <v>-7.84693261273336</v>
       </c>
       <c r="D23" t="n">
-        <v>36.53332143904406</v>
+        <v>14.78641274419406</v>
       </c>
       <c r="E23" t="n">
-        <v>51.66932537180104</v>
+        <v>22.63334535692742</v>
       </c>
       <c r="F23" t="n">
-        <v>10807.12093419169</v>
+        <v>4995.936757749108</v>
       </c>
       <c r="G23" t="n">
-        <v>9485.325227879068</v>
+        <v>4782.300341340806</v>
       </c>
       <c r="H23" t="n">
-        <v>0.06513732724757595</v>
+        <v>0.02184815261108632</v>
       </c>
       <c r="I23" t="n">
-        <v>1.104651162790698</v>
+        <v>2.160919540229885</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
@@ -1314,25 +1314,25 @@
         <v>0.001071185120264875</v>
       </c>
       <c r="C24" t="n">
-        <v>-31.26275096728609</v>
+        <v>-14.94498755819829</v>
       </c>
       <c r="D24" t="n">
-        <v>4.116559717558279</v>
+        <v>25.02728612615366</v>
       </c>
       <c r="E24" t="n">
-        <v>35.37931068484437</v>
+        <v>39.97227368435195</v>
       </c>
       <c r="F24" t="n">
-        <v>7047.778536864938</v>
+        <v>3160.90576910424</v>
       </c>
       <c r="G24" t="n">
-        <v>6940.488503711729</v>
+        <v>3444.985114670962</v>
       </c>
       <c r="H24" t="n">
-        <v>0.007670001783779651</v>
+        <v>0.04300394156743521</v>
       </c>
       <c r="I24" t="n">
-        <v>1.148148148148148</v>
+        <v>2.240963855421687</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
@@ -1351,25 +1351,25 @@
         <v>0.001119875353004187</v>
       </c>
       <c r="C25" t="n">
-        <v>-33.91999715054637</v>
+        <v>-23.1538106352494</v>
       </c>
       <c r="D25" t="n">
-        <v>43.75376293753981</v>
+        <v>-9.607111186101621</v>
       </c>
       <c r="E25" t="n">
-        <v>77.67376008808618</v>
+        <v>13.54669944914778</v>
       </c>
       <c r="F25" t="n">
-        <v>7604.7407524538</v>
+        <v>2992.519750988854</v>
       </c>
       <c r="G25" t="n">
-        <v>5445.887384866513</v>
+        <v>2345.913123217488</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1654214145764914</v>
+        <v>0.1211229293329825</v>
       </c>
       <c r="I25" t="n">
-        <v>1.03370786516854</v>
+        <v>2</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
@@ -1388,25 +1388,25 @@
         <v>0.0011685655857435</v>
       </c>
       <c r="C26" t="n">
-        <v>-38.18526363397625</v>
+        <v>-55.11289281295092</v>
       </c>
       <c r="D26" t="n">
-        <v>44.69385331511075</v>
+        <v>33.88512372944218</v>
       </c>
       <c r="E26" t="n">
-        <v>82.87911694908701</v>
+        <v>88.99801654239312</v>
       </c>
       <c r="F26" t="n">
-        <v>10247.4399004124</v>
+        <v>5759.548448582193</v>
       </c>
       <c r="G26" t="n">
-        <v>10106.89955234951</v>
+        <v>6740.13020588654</v>
       </c>
       <c r="H26" t="n">
-        <v>0.006904687248095218</v>
+        <v>0.07844855731181385</v>
       </c>
       <c r="I26" t="n">
-        <v>0.8653846153846154</v>
+        <v>1.695238095238095</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
@@ -1425,25 +1425,25 @@
         <v>0.001217255818482812</v>
       </c>
       <c r="C27" t="n">
-        <v>-33.03810746459951</v>
+        <v>-27.06052562269118</v>
       </c>
       <c r="D27" t="n">
-        <v>38.6330655354741</v>
+        <v>24.6378294773922</v>
       </c>
       <c r="E27" t="n">
-        <v>71.67117300007361</v>
+        <v>51.69835510008338</v>
       </c>
       <c r="F27" t="n">
-        <v>10728.21038282955</v>
+        <v>4980.049077270169</v>
       </c>
       <c r="G27" t="n">
-        <v>9723.177569834552</v>
+        <v>4514.951546108606</v>
       </c>
       <c r="H27" t="n">
-        <v>0.04914252349626367</v>
+        <v>0.04898341238824048</v>
       </c>
       <c r="I27" t="n">
-        <v>0.7678571428571429</v>
+        <v>1.522123893805309</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
@@ -1462,25 +1462,25 @@
         <v>0.001265946051222125</v>
       </c>
       <c r="C28" t="n">
-        <v>-31.83953710371426</v>
+        <v>-17.82132933957292</v>
       </c>
       <c r="D28" t="n">
-        <v>41.16793071527173</v>
+        <v>20.51406959554935</v>
       </c>
       <c r="E28" t="n">
-        <v>73.00746781898599</v>
+        <v>38.33539893512226</v>
       </c>
       <c r="F28" t="n">
-        <v>9604.139875157342</v>
+        <v>5512.665327049359</v>
       </c>
       <c r="G28" t="n">
-        <v>11168.24633928936</v>
+        <v>5841.07568351238</v>
       </c>
       <c r="H28" t="n">
-        <v>0.07529738990911958</v>
+        <v>0.02892529926105589</v>
       </c>
       <c r="I28" t="n">
-        <v>0.7118644067796611</v>
+        <v>1.411764705882353</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
@@ -1499,25 +1499,25 @@
         <v>0.001314636283961437</v>
       </c>
       <c r="C29" t="n">
-        <v>-36.29522550998593</v>
+        <v>-25.13086138278753</v>
       </c>
       <c r="D29" t="n">
-        <v>37.54993030745992</v>
+        <v>17.40360395071815</v>
       </c>
       <c r="E29" t="n">
-        <v>73.84515581744586</v>
+        <v>42.53446533350568</v>
       </c>
       <c r="F29" t="n">
-        <v>10489.02269381141</v>
+        <v>4660.98595240864</v>
       </c>
       <c r="G29" t="n">
-        <v>10979.49840777183</v>
+        <v>5196.280720007469</v>
       </c>
       <c r="H29" t="n">
-        <v>0.02284627393007729</v>
+        <v>0.05430458415990314</v>
       </c>
       <c r="I29" t="n">
-        <v>0.6557377049180328</v>
+        <v>1.300813008130081</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
@@ -1536,25 +1536,25 @@
         <v>0.00136332651670075</v>
       </c>
       <c r="C30" t="n">
-        <v>-36.94117689880449</v>
+        <v>-10.08437062194761</v>
       </c>
       <c r="D30" t="n">
-        <v>44.45051589594577</v>
+        <v>5.159076685145312</v>
       </c>
       <c r="E30" t="n">
-        <v>81.39169279475027</v>
+        <v>15.24344730709292</v>
       </c>
       <c r="F30" t="n">
-        <v>7996.167006550057</v>
+        <v>4592.833658289425</v>
       </c>
       <c r="G30" t="n">
-        <v>9564.48642582532</v>
+        <v>5679.489196903145</v>
       </c>
       <c r="H30" t="n">
-        <v>0.08930871651870655</v>
+        <v>0.1057847921966768</v>
       </c>
       <c r="I30" t="n">
-        <v>0.634920634920635</v>
+        <v>1.259842519685039</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
@@ -1573,25 +1573,25 @@
         <v>0.001412016749440062</v>
       </c>
       <c r="C31" t="n">
-        <v>-36.82670594282192</v>
+        <v>-37.60589895518853</v>
       </c>
       <c r="D31" t="n">
-        <v>39.7309614563228</v>
+        <v>54.66725943145889</v>
       </c>
       <c r="E31" t="n">
-        <v>76.55766739914472</v>
+        <v>92.27315838664742</v>
       </c>
       <c r="F31" t="n">
-        <v>7397.819613663067</v>
+        <v>3371.439859706235</v>
       </c>
       <c r="G31" t="n">
-        <v>9563.627258728513</v>
+        <v>4754.998000556346</v>
       </c>
       <c r="H31" t="n">
-        <v>0.127690029120733</v>
+        <v>0.170253949472199</v>
       </c>
       <c r="I31" t="n">
-        <v>0.6153846153846154</v>
+        <v>1.221374045801527</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
@@ -1610,25 +1610,25 @@
         <v>0.001460706982179375</v>
       </c>
       <c r="C32" t="n">
-        <v>-37.35943956811548</v>
+        <v>-46.00743794502274</v>
       </c>
       <c r="D32" t="n">
-        <v>42.45792347594323</v>
+        <v>42.35974658674355</v>
       </c>
       <c r="E32" t="n">
-        <v>79.81736304405871</v>
+        <v>88.3671845317663</v>
       </c>
       <c r="F32" t="n">
-        <v>8696.698003941499</v>
+        <v>5294.1461781786</v>
       </c>
       <c r="G32" t="n">
-        <v>9646.822595265432</v>
+        <v>5837.389471946763</v>
       </c>
       <c r="H32" t="n">
-        <v>0.05179619616558288</v>
+        <v>0.0488021878420741</v>
       </c>
       <c r="I32" t="n">
-        <v>0.5895522388059703</v>
+        <v>1.170370370370371</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
@@ -1647,25 +1647,25 @@
         <v>0.001509397214918687</v>
       </c>
       <c r="C33" t="n">
-        <v>-34.53014468890392</v>
+        <v>-41.56195956117053</v>
       </c>
       <c r="D33" t="n">
-        <v>38.6511700728786</v>
+        <v>55.16327632749346</v>
       </c>
       <c r="E33" t="n">
-        <v>73.18131476178252</v>
+        <v>96.725235888664</v>
       </c>
       <c r="F33" t="n">
-        <v>9715.242406499838</v>
+        <v>2787.24157330242</v>
       </c>
       <c r="G33" t="n">
-        <v>11060.63816167039</v>
+        <v>4050.692979305234</v>
       </c>
       <c r="H33" t="n">
-        <v>0.06475758034688427</v>
+        <v>0.1847709123687058</v>
       </c>
       <c r="I33" t="n">
-        <v>0.5808823529411766</v>
+        <v>1.153284671532847</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
@@ -1684,25 +1684,25 @@
         <v>0.001558087447658</v>
       </c>
       <c r="C34" t="n">
-        <v>-28.53682691859289</v>
+        <v>-52.86158099740612</v>
       </c>
       <c r="D34" t="n">
-        <v>42.03026914841769</v>
+        <v>50.41392438917951</v>
       </c>
       <c r="E34" t="n">
-        <v>70.56709606701057</v>
+        <v>103.2755053865856</v>
       </c>
       <c r="F34" t="n">
-        <v>5794.370109225682</v>
+        <v>4733.01159053014</v>
       </c>
       <c r="G34" t="n">
-        <v>7444.830284646655</v>
+        <v>5238.950005383618</v>
       </c>
       <c r="H34" t="n">
-        <v>0.1246646418453547</v>
+        <v>0.05073609740542905</v>
       </c>
       <c r="I34" t="n">
-        <v>0.5797101449275364</v>
+        <v>1.151079136690647</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
@@ -1721,25 +1721,25 @@
         <v>0.001606777680397312</v>
       </c>
       <c r="C35" t="n">
-        <v>-40.2289354454019</v>
+        <v>-60.23498475515066</v>
       </c>
       <c r="D35" t="n">
-        <v>33.75433532140112</v>
+        <v>52.24976121755592</v>
       </c>
       <c r="E35" t="n">
-        <v>73.98327076680303</v>
+        <v>112.4847459727066</v>
       </c>
       <c r="F35" t="n">
-        <v>12648.53857389056</v>
+        <v>5582.650270653771</v>
       </c>
       <c r="G35" t="n">
-        <v>12925.74693071759</v>
+        <v>5892.674846196593</v>
       </c>
       <c r="H35" t="n">
-        <v>0.01083933925649968</v>
+        <v>0.02701662675226355</v>
       </c>
       <c r="I35" t="n">
-        <v>0.5714285714285715</v>
+        <v>1.134751773049645</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
@@ -1758,25 +1758,25 @@
         <v>0.001655467913136625</v>
       </c>
       <c r="C36" t="n">
-        <v>-33.14920372182496</v>
+        <v>-43.50667057442841</v>
       </c>
       <c r="D36" t="n">
-        <v>38.84021838893672</v>
+        <v>60.49615123650867</v>
       </c>
       <c r="E36" t="n">
-        <v>71.98942211076168</v>
+        <v>104.0028218109371</v>
       </c>
       <c r="F36" t="n">
-        <v>9441.371738436783</v>
+        <v>4719.635583797556</v>
       </c>
       <c r="G36" t="n">
-        <v>10687.09245241327</v>
+        <v>4841.499499327845</v>
       </c>
       <c r="H36" t="n">
-        <v>0.06188851281275425</v>
+        <v>0.01274575816268599</v>
       </c>
       <c r="I36" t="n">
-        <v>0.5714285714285715</v>
+        <v>1.120567375886525</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
@@ -1795,30 +1795,30 @@
         <v>0.001704158145875937</v>
       </c>
       <c r="C37" t="n">
-        <v>-37.12882491718542</v>
+        <v>-61.57233464743312</v>
       </c>
       <c r="D37" t="n">
-        <v>39.48201144024215</v>
+        <v>50.16353982328059</v>
       </c>
       <c r="E37" t="n">
-        <v>76.61083635742756</v>
+        <v>111.7358744707137</v>
       </c>
       <c r="F37" t="n">
-        <v>8861.389300110633</v>
+        <v>4230.134637158292</v>
       </c>
       <c r="G37" t="n">
-        <v>8670.055202174257</v>
+        <v>4096.529217936905</v>
       </c>
       <c r="H37" t="n">
-        <v>0.01091376685540315</v>
+        <v>0.01604549211382323</v>
       </c>
       <c r="I37" t="n">
-        <v>0.5642857142857144</v>
+        <v>1.120567375886525</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Dinámico</t>
+          <t>Estático</t>
         </is>
       </c>
     </row>
@@ -1832,30 +1832,30 @@
         <v>0.00175284837861525</v>
       </c>
       <c r="C38" t="n">
-        <v>-34.97211165597965</v>
+        <v>-41.03473182627771</v>
       </c>
       <c r="D38" t="n">
-        <v>41.36152661371262</v>
+        <v>46.94381292200175</v>
       </c>
       <c r="E38" t="n">
-        <v>76.33363826969227</v>
+        <v>87.97854474827946</v>
       </c>
       <c r="F38" t="n">
-        <v>10126.02946746005</v>
+        <v>4219.537018205736</v>
       </c>
       <c r="G38" t="n">
-        <v>11532.53832710296</v>
+        <v>5690.555573729386</v>
       </c>
       <c r="H38" t="n">
-        <v>0.06494006773596492</v>
+        <v>0.1484364088304051</v>
       </c>
       <c r="I38" t="n">
-        <v>0.5642857142857144</v>
+        <v>1.120567375886525</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Dinámico</t>
+          <t>Estático</t>
         </is>
       </c>
     </row>
@@ -1869,25 +1869,25 @@
         <v>0.001801538611354562</v>
       </c>
       <c r="C39" t="n">
-        <v>-35.01760984112685</v>
+        <v>-51.848216249278</v>
       </c>
       <c r="D39" t="n">
-        <v>43.26388414787794</v>
+        <v>47.51320786559704</v>
       </c>
       <c r="E39" t="n">
-        <v>78.28149398900479</v>
+        <v>99.36142411487504</v>
       </c>
       <c r="F39" t="n">
-        <v>9532.156874880035</v>
+        <v>4193.007318261582</v>
       </c>
       <c r="G39" t="n">
-        <v>9980.092334200292</v>
+        <v>4735.782797482937</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0229566286551836</v>
+        <v>0.06078936476110634</v>
       </c>
       <c r="I39" t="n">
-        <v>0.5714285714285715</v>
+        <v>1.134751773049645</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
@@ -1906,30 +1906,30 @@
         <v>0.001850228844093875</v>
       </c>
       <c r="C40" t="n">
-        <v>-37.23282811245281</v>
+        <v>-51.72562487982019</v>
       </c>
       <c r="D40" t="n">
-        <v>33.83372068382417</v>
+        <v>56.89754236885047</v>
       </c>
       <c r="E40" t="n">
-        <v>71.06654879627698</v>
+        <v>108.6231672486707</v>
       </c>
       <c r="F40" t="n">
-        <v>10469.03065554875</v>
+        <v>5233.258838459576</v>
       </c>
       <c r="G40" t="n">
-        <v>11403.32387291227</v>
+        <v>6101.123025949595</v>
       </c>
       <c r="H40" t="n">
-        <v>0.04271571294017699</v>
+        <v>0.0765691678533595</v>
       </c>
       <c r="I40" t="n">
-        <v>0.5714285714285715</v>
+        <v>1.134751773049645</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Dinámico</t>
+          <t>Estático</t>
         </is>
       </c>
     </row>
@@ -1943,25 +1943,25 @@
         <v>0.001898919076833187</v>
       </c>
       <c r="C41" t="n">
-        <v>-31.66966672887596</v>
+        <v>-57.91484781950316</v>
       </c>
       <c r="D41" t="n">
-        <v>40.35715687045671</v>
+        <v>43.62978224690777</v>
       </c>
       <c r="E41" t="n">
-        <v>72.02682359933266</v>
+        <v>101.5446300664109</v>
       </c>
       <c r="F41" t="n">
-        <v>8263.038614010366</v>
+        <v>3623.212724687402</v>
       </c>
       <c r="G41" t="n">
-        <v>8564.851312138293</v>
+        <v>3995.12314840992</v>
       </c>
       <c r="H41" t="n">
-        <v>0.01793526695577823</v>
+        <v>0.04881780350953644</v>
       </c>
       <c r="I41" t="n">
-        <v>0.5642857142857143</v>
+        <v>1.120567375886525</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
@@ -1980,25 +1980,25 @@
         <v>0.0019476093095725</v>
       </c>
       <c r="C42" t="n">
-        <v>-40.5521600918536</v>
+        <v>-46.5177780027421</v>
       </c>
       <c r="D42" t="n">
-        <v>38.02005051515583</v>
+        <v>52.92949514380454</v>
       </c>
       <c r="E42" t="n">
-        <v>78.57221060700942</v>
+        <v>99.44727314654665</v>
       </c>
       <c r="F42" t="n">
-        <v>8525.367295236863</v>
+        <v>3981.121033917836</v>
       </c>
       <c r="G42" t="n">
-        <v>9814.192748794112</v>
+        <v>5158.608808150217</v>
       </c>
       <c r="H42" t="n">
-        <v>0.07027570184142591</v>
+        <v>0.1288317920309501</v>
       </c>
       <c r="I42" t="n">
-        <v>0.572463768115942</v>
+        <v>1.136690647482014</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
@@ -2017,25 +2017,25 @@
         <v>0.001996299542311812</v>
       </c>
       <c r="C43" t="n">
-        <v>-37.18873575501089</v>
+        <v>-36.18521410954867</v>
       </c>
       <c r="D43" t="n">
-        <v>34.87096206553228</v>
+        <v>30.06466199322538</v>
       </c>
       <c r="E43" t="n">
-        <v>72.05969782054316</v>
+        <v>66.24987610277405</v>
       </c>
       <c r="F43" t="n">
-        <v>8539.180321004163</v>
+        <v>5252.289352125983</v>
       </c>
       <c r="G43" t="n">
-        <v>10301.82417113579</v>
+        <v>5771.215920331264</v>
       </c>
       <c r="H43" t="n">
-        <v>0.09355360277457393</v>
+        <v>0.04707455164028848</v>
       </c>
       <c r="I43" t="n">
-        <v>0.5797101449275363</v>
+        <v>1.151079136690647</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
@@ -2054,25 +2054,25 @@
         <v>0.002044989775051125</v>
       </c>
       <c r="C44" t="n">
-        <v>-37.01753513101312</v>
+        <v>-56.07648024990703</v>
       </c>
       <c r="D44" t="n">
-        <v>43.0942209992494</v>
+        <v>46.4205997212301</v>
       </c>
       <c r="E44" t="n">
-        <v>80.11175613026252</v>
+        <v>102.4970799711371</v>
       </c>
       <c r="F44" t="n">
-        <v>9974.642289032199</v>
+        <v>4673.775936135276</v>
       </c>
       <c r="G44" t="n">
-        <v>9950.979719280118</v>
+        <v>4048.47889464134</v>
       </c>
       <c r="H44" t="n">
-        <v>0.001187544847644405</v>
+        <v>0.07168983865130435</v>
       </c>
       <c r="I44" t="n">
-        <v>0.5882352941176471</v>
+        <v>1.153284671532847</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
@@ -2091,30 +2091,30 @@
         <v>0.002093680007790437</v>
       </c>
       <c r="C45" t="n">
-        <v>-37.37033634118892</v>
+        <v>-49.768879657851</v>
       </c>
       <c r="D45" t="n">
-        <v>33.74076743750978</v>
+        <v>55.10516277151999</v>
       </c>
       <c r="E45" t="n">
-        <v>71.11110377869869</v>
+        <v>104.874042429371</v>
       </c>
       <c r="F45" t="n">
-        <v>9762.751699560402</v>
+        <v>4575.48169145334</v>
       </c>
       <c r="G45" t="n">
-        <v>10556.57319000418</v>
+        <v>5262.911348630411</v>
       </c>
       <c r="H45" t="n">
-        <v>0.03906731620062164</v>
+        <v>0.06987214826408471</v>
       </c>
       <c r="I45" t="n">
-        <v>0.5808823529411765</v>
+        <v>1.153284671532847</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Dinámico</t>
+          <t>Estático</t>
         </is>
       </c>
     </row>
@@ -2128,25 +2128,25 @@
         <v>0.00214237024052975</v>
       </c>
       <c r="C46" t="n">
-        <v>-28.48864025514869</v>
+        <v>-43.51150504609128</v>
       </c>
       <c r="D46" t="n">
-        <v>37.72694127248676</v>
+        <v>50.68594925347579</v>
       </c>
       <c r="E46" t="n">
-        <v>66.21558152763545</v>
+        <v>94.19745429956707</v>
       </c>
       <c r="F46" t="n">
-        <v>8688.473549000581</v>
+        <v>4631.755549694279</v>
       </c>
       <c r="G46" t="n">
-        <v>8292.673812197156</v>
+        <v>4196.090408001283</v>
       </c>
       <c r="H46" t="n">
-        <v>0.02330818574178534</v>
+        <v>0.04935123967735412</v>
       </c>
       <c r="I46" t="n">
-        <v>0.5970149253731344</v>
+        <v>1.185185185185185</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
@@ -2165,25 +2165,25 @@
         <v>0.002191060473269062</v>
       </c>
       <c r="C47" t="n">
-        <v>-44.17773621449018</v>
+        <v>-32.17197983645747</v>
       </c>
       <c r="D47" t="n">
-        <v>41.40604140891274</v>
+        <v>47.02360591869634</v>
       </c>
       <c r="E47" t="n">
-        <v>85.58377762340292</v>
+        <v>79.19558575515381</v>
       </c>
       <c r="F47" t="n">
-        <v>13709.87556995877</v>
+        <v>6683.276317494439</v>
       </c>
       <c r="G47" t="n">
-        <v>12947.23041561078</v>
+        <v>6409.536544418303</v>
       </c>
       <c r="H47" t="n">
-        <v>0.02860945050677429</v>
+        <v>0.02090763657612876</v>
       </c>
       <c r="I47" t="n">
-        <v>0.6060606060606061</v>
+        <v>1.203007518796992</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
@@ -2202,25 +2202,25 @@
         <v>0.002239750706008375</v>
       </c>
       <c r="C48" t="n">
-        <v>-32.80611228157089</v>
+        <v>-50.41069881209821</v>
       </c>
       <c r="D48" t="n">
-        <v>35.27268406485098</v>
+        <v>46.42627046226857</v>
       </c>
       <c r="E48" t="n">
-        <v>68.07879634642187</v>
+        <v>96.83696927436678</v>
       </c>
       <c r="F48" t="n">
-        <v>10737.22778216818</v>
+        <v>6161.115733292952</v>
       </c>
       <c r="G48" t="n">
-        <v>9118.230782493447</v>
+        <v>6256.026134727465</v>
       </c>
       <c r="H48" t="n">
-        <v>0.08153913919450829</v>
+        <v>0.007643498193328046</v>
       </c>
       <c r="I48" t="n">
-        <v>0.6060606060606061</v>
+        <v>1.18796992481203</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
@@ -2239,25 +2239,25 @@
         <v>0.002288440938747687</v>
       </c>
       <c r="C49" t="n">
-        <v>-35.87544518712706</v>
+        <v>-49.02193761676418</v>
       </c>
       <c r="D49" t="n">
-        <v>35.50252193347195</v>
+        <v>32.87355452311091</v>
       </c>
       <c r="E49" t="n">
-        <v>71.37796712059901</v>
+        <v>81.89549213987509</v>
       </c>
       <c r="F49" t="n">
-        <v>10803.48934142707</v>
+        <v>4732.464680017116</v>
       </c>
       <c r="G49" t="n">
-        <v>10297.78708519822</v>
+        <v>5140.727944337503</v>
       </c>
       <c r="H49" t="n">
-        <v>0.02396548180330748</v>
+        <v>0.04135068359887022</v>
       </c>
       <c r="I49" t="n">
-        <v>0.6153846153846154</v>
+        <v>1.206106870229008</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
@@ -2276,25 +2276,25 @@
         <v>0.002337131171487</v>
       </c>
       <c r="C50" t="n">
-        <v>-46.89601183014504</v>
+        <v>-44.06874936187349</v>
       </c>
       <c r="D50" t="n">
-        <v>37.45587994780327</v>
+        <v>52.91874956968723</v>
       </c>
       <c r="E50" t="n">
-        <v>84.35189177794831</v>
+        <v>96.98749893156072</v>
       </c>
       <c r="F50" t="n">
-        <v>11721.82851336102</v>
+        <v>4625.691283358196</v>
       </c>
       <c r="G50" t="n">
-        <v>10748.90791210892</v>
+        <v>4811.048095672669</v>
       </c>
       <c r="H50" t="n">
-        <v>0.04329722812952944</v>
+        <v>0.01964203999597032</v>
       </c>
       <c r="I50" t="n">
-        <v>0.6230769230769231</v>
+        <v>1.221374045801527</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
@@ -2313,30 +2313,30 @@
         <v>0.002385821404226312</v>
       </c>
       <c r="C51" t="n">
-        <v>-31.54741522430647</v>
+        <v>-42.35182115503283</v>
       </c>
       <c r="D51" t="n">
-        <v>35.29618018563129</v>
+        <v>42.50808664978145</v>
       </c>
       <c r="E51" t="n">
-        <v>66.84359540993776</v>
+        <v>84.85990780481428</v>
       </c>
       <c r="F51" t="n">
-        <v>10480.39703397032</v>
+        <v>4538.516384301189</v>
       </c>
       <c r="G51" t="n">
-        <v>10332.74153879039</v>
+        <v>4889.978552547836</v>
       </c>
       <c r="H51" t="n">
-        <v>0.007094340657163903</v>
+        <v>0.0372765929876084</v>
       </c>
       <c r="I51" t="n">
-        <v>0.6230769230769231</v>
+        <v>1.221374045801527</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Dinámico</t>
+          <t>Estático</t>
         </is>
       </c>
     </row>
@@ -2350,25 +2350,25 @@
         <v>0.002434511636965625</v>
       </c>
       <c r="C52" t="n">
-        <v>-40.85298047438249</v>
+        <v>-31.14901421843192</v>
       </c>
       <c r="D52" t="n">
-        <v>36.452815614703</v>
+        <v>25.01757403736672</v>
       </c>
       <c r="E52" t="n">
-        <v>77.30579608908549</v>
+        <v>56.16658825579864</v>
       </c>
       <c r="F52" t="n">
-        <v>12133.94976095602</v>
+        <v>3914.949147296112</v>
       </c>
       <c r="G52" t="n">
-        <v>11292.70421153379</v>
+        <v>4433.407868372228</v>
       </c>
       <c r="H52" t="n">
-        <v>0.03590976118100837</v>
+        <v>0.06210308448753016</v>
       </c>
       <c r="I52" t="n">
-        <v>0.6153846153846154</v>
+        <v>1.206106870229008</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
@@ -2387,30 +2387,30 @@
         <v>0.002483201869704937</v>
       </c>
       <c r="C53" t="n">
-        <v>-35.97852466755418</v>
+        <v>-47.40801858224969</v>
       </c>
       <c r="D53" t="n">
-        <v>37.84833554890228</v>
+        <v>55.14412275562844</v>
       </c>
       <c r="E53" t="n">
-        <v>73.82686021645645</v>
+        <v>102.5521413378781</v>
       </c>
       <c r="F53" t="n">
-        <v>11739.52514372168</v>
+        <v>4585.017241364969</v>
       </c>
       <c r="G53" t="n">
-        <v>11802.79842201421</v>
+        <v>5931.016848551001</v>
       </c>
       <c r="H53" t="n">
-        <v>0.002687639481118169</v>
+        <v>0.127994983249126</v>
       </c>
       <c r="I53" t="n">
-        <v>0.6230769230769231</v>
+        <v>1.206106870229008</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Dinámico</t>
+          <t>Estático</t>
         </is>
       </c>
     </row>
@@ -2424,30 +2424,30 @@
         <v>0.00253189210244425</v>
       </c>
       <c r="C54" t="n">
-        <v>-35.0451512649981</v>
+        <v>-31.86120495491293</v>
       </c>
       <c r="D54" t="n">
-        <v>35.66249865189062</v>
+        <v>23.21865617804664</v>
       </c>
       <c r="E54" t="n">
-        <v>70.70764991688873</v>
+        <v>55.07986113295956</v>
       </c>
       <c r="F54" t="n">
-        <v>8058.494399161811</v>
+        <v>2818.601310290618</v>
       </c>
       <c r="G54" t="n">
-        <v>7950.983714506005</v>
+        <v>4070.915083043787</v>
       </c>
       <c r="H54" t="n">
-        <v>0.006715439684696597</v>
+        <v>0.1817709257452063</v>
       </c>
       <c r="I54" t="n">
-        <v>0.6183206106870229</v>
+        <v>1.206106870229008</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Dinámico</t>
+          <t>Estático</t>
         </is>
       </c>
     </row>
@@ -2461,25 +2461,25 @@
         <v>0.002580582335183562</v>
       </c>
       <c r="C55" t="n">
-        <v>-32.98394269784961</v>
+        <v>-42.92281987746968</v>
       </c>
       <c r="D55" t="n">
-        <v>32.41537174193742</v>
+        <v>25.31179501758822</v>
       </c>
       <c r="E55" t="n">
-        <v>65.39931443978703</v>
+        <v>68.2346148950579</v>
       </c>
       <c r="F55" t="n">
-        <v>10508.55625701991</v>
+        <v>4634.504224007361</v>
       </c>
       <c r="G55" t="n">
-        <v>10915.14441032589</v>
+        <v>5770.681496140322</v>
       </c>
       <c r="H55" t="n">
-        <v>0.01897842765912528</v>
+        <v>0.1091933678735756</v>
       </c>
       <c r="I55" t="n">
-        <v>0.6136363636363636</v>
+        <v>1.203007518796992</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
@@ -2498,25 +2498,25 @@
         <v>0.002629272567922875</v>
       </c>
       <c r="C56" t="n">
-        <v>-35.10324087085123</v>
+        <v>-40.2701737291243</v>
       </c>
       <c r="D56" t="n">
-        <v>35.72780579462034</v>
+        <v>52.82828811856102</v>
       </c>
       <c r="E56" t="n">
-        <v>70.83104666547158</v>
+        <v>93.09846184768531</v>
       </c>
       <c r="F56" t="n">
-        <v>12093.04296690615</v>
+        <v>6326.848836637468</v>
       </c>
       <c r="G56" t="n">
-        <v>11004.87593658572</v>
+        <v>6446.517331178876</v>
       </c>
       <c r="H56" t="n">
-        <v>0.04711104211886046</v>
+        <v>0.009368595010054886</v>
       </c>
       <c r="I56" t="n">
-        <v>0.6060606060606061</v>
+        <v>1.18796992481203</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
@@ -2535,30 +2535,30 @@
         <v>0.002677962800662187</v>
       </c>
       <c r="C57" t="n">
-        <v>-36.79708172252533</v>
+        <v>-45.91764381830297</v>
       </c>
       <c r="D57" t="n">
-        <v>35.87910712998267</v>
+        <v>28.09080034815147</v>
       </c>
       <c r="E57" t="n">
-        <v>72.67618885250801</v>
+        <v>74.00844416645444</v>
       </c>
       <c r="F57" t="n">
-        <v>11678.70271242862</v>
+        <v>5195.029317829664</v>
       </c>
       <c r="G57" t="n">
-        <v>11525.50079876135</v>
+        <v>5758.974568303532</v>
       </c>
       <c r="H57" t="n">
-        <v>0.006602334512080766</v>
+        <v>0.05148302450282791</v>
       </c>
       <c r="I57" t="n">
-        <v>0.6060606060606061</v>
+        <v>1.18796992481203</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Dinámico</t>
+          <t>Estático</t>
         </is>
       </c>
     </row>
@@ -2572,30 +2572,30 @@
         <v>0.0027266530334015</v>
       </c>
       <c r="C58" t="n">
-        <v>-36.81913634370068</v>
+        <v>-51.95387786016193</v>
       </c>
       <c r="D58" t="n">
-        <v>38.28220006829127</v>
+        <v>23.22257527311127</v>
       </c>
       <c r="E58" t="n">
-        <v>75.10133641199195</v>
+        <v>75.1764531332732</v>
       </c>
       <c r="F58" t="n">
-        <v>13063.49957581375</v>
+        <v>6671.893538065419</v>
       </c>
       <c r="G58" t="n">
-        <v>13927.859971324</v>
+        <v>8018.38876995116</v>
       </c>
       <c r="H58" t="n">
-        <v>0.03202359606972489</v>
+        <v>0.0916589078176496</v>
       </c>
       <c r="I58" t="n">
-        <v>0.6060606060606061</v>
+        <v>1.18796992481203</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Dinámico</t>
+          <t>Estático</t>
         </is>
       </c>
     </row>
@@ -2609,30 +2609,30 @@
         <v>0.002775343266140812</v>
       </c>
       <c r="C59" t="n">
-        <v>-31.36264041294189</v>
+        <v>-29.1603464993763</v>
       </c>
       <c r="D59" t="n">
-        <v>37.50938915638875</v>
+        <v>40.4094875021153</v>
       </c>
       <c r="E59" t="n">
-        <v>68.87202956933064</v>
+        <v>69.56983400149161</v>
       </c>
       <c r="F59" t="n">
-        <v>9736.060915196418</v>
+        <v>4479.545309356315</v>
       </c>
       <c r="G59" t="n">
-        <v>10532.87308556728</v>
+        <v>5786.042530132772</v>
       </c>
       <c r="H59" t="n">
-        <v>0.03931199195482315</v>
+        <v>0.1272695963645353</v>
       </c>
       <c r="I59" t="n">
-        <v>0.6060606060606061</v>
+        <v>1.18796992481203</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Dinámico</t>
+          <t>Estático</t>
         </is>
       </c>
     </row>
@@ -2646,30 +2646,30 @@
         <v>0.002824033498880125</v>
       </c>
       <c r="C60" t="n">
-        <v>-32.06921141994268</v>
+        <v>-46.51727661147002</v>
       </c>
       <c r="D60" t="n">
-        <v>45.41564785081528</v>
+        <v>33.66344589278683</v>
       </c>
       <c r="E60" t="n">
-        <v>77.48485927075797</v>
+        <v>80.18072250425685</v>
       </c>
       <c r="F60" t="n">
-        <v>13993.72323665171</v>
+        <v>7511.909703316478</v>
       </c>
       <c r="G60" t="n">
-        <v>11965.32672398628</v>
+        <v>6857.956144039485</v>
       </c>
       <c r="H60" t="n">
-        <v>0.07813831845699726</v>
+        <v>0.04550867532262447</v>
       </c>
       <c r="I60" t="n">
-        <v>0.5984848484848485</v>
+        <v>1.18796992481203</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Dinámico</t>
+          <t>Estático</t>
         </is>
       </c>
     </row>
@@ -2683,30 +2683,30 @@
         <v>0.002872723731619437</v>
       </c>
       <c r="C61" t="n">
-        <v>-28.99690277881015</v>
+        <v>-44.51969990192489</v>
       </c>
       <c r="D61" t="n">
-        <v>35.49567951341422</v>
+        <v>35.92010691264413</v>
       </c>
       <c r="E61" t="n">
-        <v>64.49258229222437</v>
+        <v>80.43980681456902</v>
       </c>
       <c r="F61" t="n">
-        <v>12711.46091737419</v>
+        <v>5775.180340837152</v>
       </c>
       <c r="G61" t="n">
-        <v>11372.56394205607</v>
+        <v>5754.714075941118</v>
       </c>
       <c r="H61" t="n">
-        <v>0.05559274179182145</v>
+        <v>0.001775060911767884</v>
       </c>
       <c r="I61" t="n">
-        <v>0.6060606060606061</v>
+        <v>1.18796992481203</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Dinámico</t>
+          <t>Estático</t>
         </is>
       </c>
     </row>
@@ -2720,30 +2720,30 @@
         <v>0.00292141396435875</v>
       </c>
       <c r="C62" t="n">
-        <v>-28.40970585192042</v>
+        <v>-40.88710094045721</v>
       </c>
       <c r="D62" t="n">
-        <v>35.30507311361292</v>
+        <v>25.82879637674207</v>
       </c>
       <c r="E62" t="n">
-        <v>63.71477896553334</v>
+        <v>66.71589731719928</v>
       </c>
       <c r="F62" t="n">
-        <v>13422.84986350282</v>
+        <v>6923.793637674977</v>
       </c>
       <c r="G62" t="n">
-        <v>13454.15610916588</v>
+        <v>7499.703260819498</v>
       </c>
       <c r="H62" t="n">
-        <v>0.001164796618153434</v>
+        <v>0.03992857121941312</v>
       </c>
       <c r="I62" t="n">
-        <v>0.6060606060606061</v>
+        <v>1.18796992481203</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Dinámico</t>
+          <t>Estático</t>
         </is>
       </c>
     </row>
@@ -2757,30 +2757,30 @@
         <v>0.002970104197098062</v>
       </c>
       <c r="C63" t="n">
-        <v>-43.3071695792218</v>
+        <v>-40.53827670038326</v>
       </c>
       <c r="D63" t="n">
-        <v>40.62133636022561</v>
+        <v>19.67234745740461</v>
       </c>
       <c r="E63" t="n">
-        <v>83.9285059394474</v>
+        <v>60.21062415778787</v>
       </c>
       <c r="F63" t="n">
-        <v>10430.68637883366</v>
+        <v>5203.769671038804</v>
       </c>
       <c r="G63" t="n">
-        <v>10924.54261935021</v>
+        <v>6348.206979657968</v>
       </c>
       <c r="H63" t="n">
-        <v>0.0231257759192633</v>
+        <v>0.09906852681788759</v>
       </c>
       <c r="I63" t="n">
-        <v>0.6060606060606061</v>
+        <v>1.18796992481203</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Dinámico</t>
+          <t>Estático</t>
         </is>
       </c>
     </row>
@@ -2794,30 +2794,30 @@
         <v>0.003018794429837374</v>
       </c>
       <c r="C64" t="n">
-        <v>-32.50780078070592</v>
+        <v>-46.2098928859803</v>
       </c>
       <c r="D64" t="n">
-        <v>30.47571957546196</v>
+        <v>29.76091915971026</v>
       </c>
       <c r="E64" t="n">
-        <v>62.98352035616788</v>
+        <v>75.97081204569056</v>
       </c>
       <c r="F64" t="n">
-        <v>11134.26680184439</v>
+        <v>4816.999005747198</v>
       </c>
       <c r="G64" t="n">
-        <v>12690.73960586028</v>
+        <v>6234.153188076918</v>
       </c>
       <c r="H64" t="n">
-        <v>0.0653293760925306</v>
+        <v>0.128235875995056</v>
       </c>
       <c r="I64" t="n">
-        <v>0.6060606060606061</v>
+        <v>1.18796992481203</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Dinámico</t>
+          <t>Estático</t>
         </is>
       </c>
     </row>
@@ -2831,25 +2831,25 @@
         <v>0.003067484662576687</v>
       </c>
       <c r="C65" t="n">
-        <v>-29.5031905256184</v>
+        <v>-40.18853467685158</v>
       </c>
       <c r="D65" t="n">
-        <v>37.51238027992848</v>
+        <v>45.73396581679896</v>
       </c>
       <c r="E65" t="n">
-        <v>67.01557080554687</v>
+        <v>85.92250049365055</v>
       </c>
       <c r="F65" t="n">
-        <v>12036.02748297017</v>
+        <v>5119.186837607598</v>
       </c>
       <c r="G65" t="n">
-        <v>11229.05426901521</v>
+        <v>5350.293196081413</v>
       </c>
       <c r="H65" t="n">
-        <v>0.03468602528706313</v>
+        <v>0.0220742919161366</v>
       </c>
       <c r="I65" t="n">
-        <v>0.5984848484848485</v>
+        <v>1.172932330827068</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
@@ -2868,25 +2868,25 @@
         <v>0.003116174895315999</v>
       </c>
       <c r="C66" t="n">
-        <v>-39.49573158371049</v>
+        <v>-20.63468301342768</v>
       </c>
       <c r="D66" t="n">
-        <v>36.10032108375655</v>
+        <v>33.99206028569781</v>
       </c>
       <c r="E66" t="n">
-        <v>75.59605266746703</v>
+        <v>54.62674329912549</v>
       </c>
       <c r="F66" t="n">
-        <v>13194.31939084245</v>
+        <v>6371.77685831973</v>
       </c>
       <c r="G66" t="n">
-        <v>11445.51633553919</v>
+        <v>5758.811757765677</v>
       </c>
       <c r="H66" t="n">
-        <v>0.07097462315590149</v>
+        <v>0.05053053235530958</v>
       </c>
       <c r="I66" t="n">
-        <v>0.5984848484848485</v>
+        <v>1.18796992481203</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
@@ -2905,30 +2905,30 @@
         <v>0.003164865128055312</v>
       </c>
       <c r="C67" t="n">
-        <v>-32.32431777975096</v>
+        <v>-50.3666791464112</v>
       </c>
       <c r="D67" t="n">
-        <v>39.68858315071169</v>
+        <v>51.2010120061079</v>
       </c>
       <c r="E67" t="n">
-        <v>72.01290093046265</v>
+        <v>101.5676911525191</v>
       </c>
       <c r="F67" t="n">
-        <v>11571.58693469013</v>
+        <v>5071.023530989044</v>
       </c>
       <c r="G67" t="n">
-        <v>10596.99466431099</v>
+        <v>4853.12877036389</v>
       </c>
       <c r="H67" t="n">
-        <v>0.04396277073599771</v>
+        <v>0.02195600732522505</v>
       </c>
       <c r="I67" t="n">
-        <v>0.5984848484848485</v>
+        <v>1.18796992481203</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Dinámico</t>
+          <t>Estático</t>
         </is>
       </c>
     </row>
@@ -2942,30 +2942,30 @@
         <v>0.003213555360794625</v>
       </c>
       <c r="C68" t="n">
-        <v>-29.01005786345352</v>
+        <v>-50.34490152427985</v>
       </c>
       <c r="D68" t="n">
-        <v>34.12220862908598</v>
+        <v>37.40790561970309</v>
       </c>
       <c r="E68" t="n">
-        <v>63.1322664925395</v>
+        <v>87.75280714398295</v>
       </c>
       <c r="F68" t="n">
-        <v>12686.71760434703</v>
+        <v>6871.746065431753</v>
       </c>
       <c r="G68" t="n">
-        <v>11462.39997742604</v>
+        <v>6362.827107945128</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05069823453280372</v>
+        <v>0.03845374919308948</v>
       </c>
       <c r="I68" t="n">
-        <v>0.5984848484848485</v>
+        <v>1.18796992481203</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Dinámico</t>
+          <t>Estático</t>
         </is>
       </c>
     </row>
@@ -2979,30 +2979,30 @@
         <v>0.003262245593533937</v>
       </c>
       <c r="C69" t="n">
-        <v>-29.0112563319006</v>
+        <v>-34.18999719015173</v>
       </c>
       <c r="D69" t="n">
-        <v>42.71971201304753</v>
+        <v>21.97420081709883</v>
       </c>
       <c r="E69" t="n">
-        <v>71.73096834494814</v>
+        <v>56.16419800725056</v>
       </c>
       <c r="F69" t="n">
-        <v>13846.53245577681</v>
+        <v>6324.986951011158</v>
       </c>
       <c r="G69" t="n">
-        <v>13154.80356135427</v>
+        <v>6876.862932548318</v>
       </c>
       <c r="H69" t="n">
-        <v>0.02561832103358386</v>
+        <v>0.04180292810513037</v>
       </c>
       <c r="I69" t="n">
-        <v>0.6060606060606061</v>
+        <v>1.18796992481203</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Dinámico</t>
+          <t>Estático</t>
         </is>
       </c>
     </row>
@@ -3016,30 +3016,30 @@
         <v>0.00331093582627325</v>
       </c>
       <c r="C70" t="n">
-        <v>-21.27021992903763</v>
+        <v>-46.60620768594121</v>
       </c>
       <c r="D70" t="n">
-        <v>33.46578780823047</v>
+        <v>44.35566638791697</v>
       </c>
       <c r="E70" t="n">
-        <v>54.7360077372681</v>
+        <v>90.96187407385818</v>
       </c>
       <c r="F70" t="n">
-        <v>10494.81291068707</v>
+        <v>4807.028900683371</v>
       </c>
       <c r="G70" t="n">
-        <v>10782.64033926024</v>
+        <v>5598.120018188497</v>
       </c>
       <c r="H70" t="n">
-        <v>0.01352734395381102</v>
+        <v>0.07602881262663337</v>
       </c>
       <c r="I70" t="n">
-        <v>0.6060606060606061</v>
+        <v>1.18796992481203</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Dinámico</t>
+          <t>Estático</t>
         </is>
       </c>
     </row>
@@ -3053,30 +3053,30 @@
         <v>0.003359626059012562</v>
       </c>
       <c r="C71" t="n">
-        <v>-7.668826985748244</v>
+        <v>-49.59997590123336</v>
       </c>
       <c r="D71" t="n">
-        <v>38.84139199957819</v>
+        <v>38.99393237217761</v>
       </c>
       <c r="E71" t="n">
-        <v>46.51021898532644</v>
+        <v>88.59390827341096</v>
       </c>
       <c r="F71" t="n">
-        <v>12535.06663474507</v>
+        <v>6797.723712822246</v>
       </c>
       <c r="G71" t="n">
-        <v>13033.93950594647</v>
+        <v>7692.093933077109</v>
       </c>
       <c r="H71" t="n">
-        <v>0.01951084326298752</v>
+        <v>0.06172404940568534</v>
       </c>
       <c r="I71" t="n">
-        <v>0.6060606060606061</v>
+        <v>1.18796992481203</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Dinámico</t>
+          <t>Estático</t>
         </is>
       </c>
     </row>
@@ -3090,30 +3090,30 @@
         <v>0.003408316291751875</v>
       </c>
       <c r="C72" t="n">
-        <v>-32.46250860875028</v>
+        <v>-43.71712578159995</v>
       </c>
       <c r="D72" t="n">
-        <v>29.945418437968</v>
+        <v>18.76819010779572</v>
       </c>
       <c r="E72" t="n">
-        <v>62.40792704671829</v>
+        <v>62.48531588939568</v>
       </c>
       <c r="F72" t="n">
-        <v>10872.86062553122</v>
+        <v>5107.818531192983</v>
       </c>
       <c r="G72" t="n">
-        <v>12038.60496265189</v>
+        <v>6331.218350825751</v>
       </c>
       <c r="H72" t="n">
-        <v>0.05088039141947863</v>
+        <v>0.1069495476105909</v>
       </c>
       <c r="I72" t="n">
-        <v>0.6060606060606061</v>
+        <v>1.18796992481203</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Dinámico</t>
+          <t>Estático</t>
         </is>
       </c>
     </row>
@@ -3127,25 +3127,25 @@
         <v>0.003457006524491187</v>
       </c>
       <c r="C73" t="n">
-        <v>-30.78541679215737</v>
+        <v>-29.11381560048808</v>
       </c>
       <c r="D73" t="n">
-        <v>31.92153863664933</v>
+        <v>17.40096329831927</v>
       </c>
       <c r="E73" t="n">
-        <v>62.70695542880669</v>
+        <v>46.51477889880735</v>
       </c>
       <c r="F73" t="n">
-        <v>8432.683573060647</v>
+        <v>4501.40298912117</v>
       </c>
       <c r="G73" t="n">
-        <v>8388.088987574363</v>
+        <v>4481.424824786854</v>
       </c>
       <c r="H73" t="n">
-        <v>0.00265116155191628</v>
+        <v>0.00222403955059505</v>
       </c>
       <c r="I73" t="n">
-        <v>0.6060606060606061</v>
+        <v>1.172932330827068</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
@@ -3164,30 +3164,30 @@
         <v>0.0035056967572305</v>
       </c>
       <c r="C74" t="n">
-        <v>-29.87270240401011</v>
+        <v>-39.7317638611021</v>
       </c>
       <c r="D74" t="n">
-        <v>35.05647493168392</v>
+        <v>32.01007504949136</v>
       </c>
       <c r="E74" t="n">
-        <v>64.92917733569404</v>
+        <v>71.74183891059346</v>
       </c>
       <c r="F74" t="n">
-        <v>10783.42006807571</v>
+        <v>4534.442066868653</v>
       </c>
       <c r="G74" t="n">
-        <v>9569.297511968516</v>
+        <v>4547.502950257077</v>
       </c>
       <c r="H74" t="n">
-        <v>0.05965407574355754</v>
+        <v>0.001438115223533581</v>
       </c>
       <c r="I74" t="n">
-        <v>0.5984848484848485</v>
+        <v>1.172932330827068</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Dinámico</t>
+          <t>Estático</t>
         </is>
       </c>
     </row>
@@ -3201,30 +3201,30 @@
         <v>0.003554386989969812</v>
       </c>
       <c r="C75" t="n">
-        <v>-32.97774381449248</v>
+        <v>-47.34864702538007</v>
       </c>
       <c r="D75" t="n">
-        <v>33.82633496691644</v>
+        <v>30.71295610116157</v>
       </c>
       <c r="E75" t="n">
-        <v>66.80407878140892</v>
+        <v>78.06160312654164</v>
       </c>
       <c r="F75" t="n">
-        <v>10300.52451924708</v>
+        <v>4549.062634213675</v>
       </c>
       <c r="G75" t="n">
-        <v>10155.77208617577</v>
+        <v>5117.457991506998</v>
       </c>
       <c r="H75" t="n">
-        <v>0.007076179812182713</v>
+        <v>0.05880040805798698</v>
       </c>
       <c r="I75" t="n">
-        <v>0.5984848484848485</v>
+        <v>1.172932330827068</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Dinámico</t>
+          <t>Estático</t>
         </is>
       </c>
     </row>
@@ -3238,30 +3238,30 @@
         <v>0.003603077222709125</v>
       </c>
       <c r="C76" t="n">
-        <v>-39.08491454823519</v>
+        <v>-47.40848794124373</v>
       </c>
       <c r="D76" t="n">
-        <v>35.26787044153085</v>
+        <v>30.66860485065117</v>
       </c>
       <c r="E76" t="n">
-        <v>74.35278498976604</v>
+        <v>78.0770927918949</v>
       </c>
       <c r="F76" t="n">
-        <v>9664.101558396675</v>
+        <v>4557.322445661486</v>
       </c>
       <c r="G76" t="n">
-        <v>9536.258367579696</v>
+        <v>5142.237425643772</v>
       </c>
       <c r="H76" t="n">
-        <v>0.00665837470286264</v>
+        <v>0.06030324960544566</v>
       </c>
       <c r="I76" t="n">
-        <v>0.5984848484848485</v>
+        <v>1.172932330827068</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Dinámico</t>
+          <t>Estático</t>
         </is>
       </c>
     </row>
@@ -3275,30 +3275,30 @@
         <v>0.003651767455448437</v>
       </c>
       <c r="C77" t="n">
-        <v>-43.44082111506763</v>
+        <v>-50.89738977776504</v>
       </c>
       <c r="D77" t="n">
-        <v>41.57793950842292</v>
+        <v>34.68231902020907</v>
       </c>
       <c r="E77" t="n">
-        <v>85.01876062349055</v>
+        <v>85.57970879797412</v>
       </c>
       <c r="F77" t="n">
-        <v>11035.32176528605</v>
+        <v>5108.712632393894</v>
       </c>
       <c r="G77" t="n">
-        <v>10957.03656301048</v>
+        <v>5541.660146583045</v>
       </c>
       <c r="H77" t="n">
-        <v>0.00355965472674434</v>
+        <v>0.04065092585714544</v>
       </c>
       <c r="I77" t="n">
-        <v>0.5984848484848485</v>
+        <v>1.172932330827068</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Dinámico</t>
+          <t>Estático</t>
         </is>
       </c>
     </row>
@@ -3312,30 +3312,30 @@
         <v>0.00370045768818775</v>
       </c>
       <c r="C78" t="n">
-        <v>-32.96408085184687</v>
+        <v>-50.70266945973963</v>
       </c>
       <c r="D78" t="n">
-        <v>33.48892763293442</v>
+        <v>35.28534836955448</v>
       </c>
       <c r="E78" t="n">
-        <v>66.45300848478129</v>
+        <v>85.98801782929411</v>
       </c>
       <c r="F78" t="n">
-        <v>10432.32768951266</v>
+        <v>4497.45877348955</v>
       </c>
       <c r="G78" t="n">
-        <v>10013.4596128091</v>
+        <v>4938.666099126514</v>
       </c>
       <c r="H78" t="n">
-        <v>0.02048676680970827</v>
+        <v>0.0467572580474599</v>
       </c>
       <c r="I78" t="n">
-        <v>0.5984848484848485</v>
+        <v>1.172932330827068</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Dinámico</t>
+          <t>Estático</t>
         </is>
       </c>
     </row>
@@ -3349,30 +3349,30 @@
         <v>0.003749147920927062</v>
       </c>
       <c r="C79" t="n">
-        <v>-33.33863909466828</v>
+        <v>-47.91724116007083</v>
       </c>
       <c r="D79" t="n">
-        <v>42.14471082047468</v>
+        <v>34.34156923960185</v>
       </c>
       <c r="E79" t="n">
-        <v>75.48334991514295</v>
+        <v>82.25881039967268</v>
       </c>
       <c r="F79" t="n">
-        <v>10328.33571275557</v>
+        <v>3967.219224236062</v>
       </c>
       <c r="G79" t="n">
-        <v>10292.39037869566</v>
+        <v>4573.303847262232</v>
       </c>
       <c r="H79" t="n">
-        <v>0.001743165294010378</v>
+        <v>0.07096574975001418</v>
       </c>
       <c r="I79" t="n">
-        <v>0.5984848484848485</v>
+        <v>1.172932330827068</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Dinámico</t>
+          <t>Estático</t>
         </is>
       </c>
     </row>
@@ -3386,30 +3386,30 @@
         <v>0.003797838153666374</v>
       </c>
       <c r="C80" t="n">
-        <v>-32.95460998668005</v>
+        <v>-45.05225383008343</v>
       </c>
       <c r="D80" t="n">
-        <v>32.2758825369194</v>
+        <v>36.61067651240879</v>
       </c>
       <c r="E80" t="n">
-        <v>65.23049252359945</v>
+        <v>81.66293034249222</v>
       </c>
       <c r="F80" t="n">
-        <v>10881.77100884205</v>
+        <v>4520.654520322537</v>
       </c>
       <c r="G80" t="n">
-        <v>10870.60502390157</v>
+        <v>5151.518492468144</v>
       </c>
       <c r="H80" t="n">
-        <v>0.0005133225411176688</v>
+        <v>0.06522463683304051</v>
       </c>
       <c r="I80" t="n">
-        <v>0.5984848484848485</v>
+        <v>1.172932330827068</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Dinámico</t>
+          <t>Estático</t>
         </is>
       </c>
     </row>
@@ -3423,25 +3423,25 @@
         <v>0.003846528386405687</v>
       </c>
       <c r="C81" t="n">
-        <v>-31.02956085671678</v>
+        <v>-47.68984862011504</v>
       </c>
       <c r="D81" t="n">
-        <v>33.43556548403063</v>
+        <v>36.58726660971591</v>
       </c>
       <c r="E81" t="n">
-        <v>64.46512634074742</v>
+        <v>84.27711522983095</v>
       </c>
       <c r="F81" t="n">
-        <v>10931.32993997249</v>
+        <v>5800.980995497397</v>
       </c>
       <c r="G81" t="n">
-        <v>9684.55793766494</v>
+        <v>5163.199726784174</v>
       </c>
       <c r="H81" t="n">
-        <v>0.06047627003540073</v>
+        <v>0.05816953266896761</v>
       </c>
       <c r="I81" t="n">
-        <v>0.5984848484848485</v>
+        <v>1.18796992481203</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
@@ -3460,30 +3460,30 @@
         <v>0.003895218619144999</v>
       </c>
       <c r="C82" t="n">
-        <v>-32.97962267738961</v>
+        <v>-47.30876374598432</v>
       </c>
       <c r="D82" t="n">
-        <v>33.48105029417904</v>
+        <v>37.40336561088538</v>
       </c>
       <c r="E82" t="n">
-        <v>66.46067297156866</v>
+        <v>84.7121293568697</v>
       </c>
       <c r="F82" t="n">
-        <v>10344.85549958958</v>
+        <v>5214.506555114494</v>
       </c>
       <c r="G82" t="n">
-        <v>9122.862795997675</v>
+        <v>4601.504585116908</v>
       </c>
       <c r="H82" t="n">
-        <v>0.06277020681303461</v>
+        <v>0.06244919257326103</v>
       </c>
       <c r="I82" t="n">
-        <v>0.5984848484848485</v>
+        <v>1.18796992481203</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Dinámico</t>
+          <t>Estático</t>
         </is>
       </c>
     </row>
@@ -3497,30 +3497,30 @@
         <v>0.003943908851884312</v>
       </c>
       <c r="C83" t="n">
-        <v>-31.05377732097344</v>
+        <v>-47.30880966110693</v>
       </c>
       <c r="D83" t="n">
-        <v>33.46204194612601</v>
+        <v>37.42377024409378</v>
       </c>
       <c r="E83" t="n">
-        <v>64.51581926709946</v>
+        <v>84.73257990520071</v>
       </c>
       <c r="F83" t="n">
-        <v>10344.85549958958</v>
+        <v>5214.506555114495</v>
       </c>
       <c r="G83" t="n">
-        <v>9122.862795997675</v>
+        <v>4601.504585116908</v>
       </c>
       <c r="H83" t="n">
-        <v>0.06277020681303461</v>
+        <v>0.06244919257326112</v>
       </c>
       <c r="I83" t="n">
-        <v>0.5984848484848485</v>
+        <v>1.18796992481203</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Dinámico</t>
+          <t>Estático</t>
         </is>
       </c>
     </row>
@@ -3534,30 +3534,30 @@
         <v>0.003992599084623624</v>
       </c>
       <c r="C84" t="n">
-        <v>-33.54170537686175</v>
+        <v>-47.91722227386305</v>
       </c>
       <c r="D84" t="n">
-        <v>42.42972798445538</v>
+        <v>37.1824897604546</v>
       </c>
       <c r="E84" t="n">
-        <v>75.97143336131712</v>
+        <v>85.09971203431766</v>
       </c>
       <c r="F84" t="n">
-        <v>8411.939189305933</v>
+        <v>3942.402885339457</v>
       </c>
       <c r="G84" t="n">
-        <v>7214.76281518524</v>
+        <v>3337.697757037318</v>
       </c>
       <c r="H84" t="n">
-        <v>0.07661094284492143</v>
+        <v>0.08306274294921254</v>
       </c>
       <c r="I84" t="n">
-        <v>0.5984848484848485</v>
+        <v>1.18796992481203</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Dinámico</t>
+          <t>Estático</t>
         </is>
       </c>
     </row>
@@ -3571,30 +3571,30 @@
         <v>0.004041289317362937</v>
       </c>
       <c r="C85" t="n">
-        <v>-36.02370383259773</v>
+        <v>-45.04598928848527</v>
       </c>
       <c r="D85" t="n">
-        <v>33.4603504801588</v>
+        <v>36.27123002133124</v>
       </c>
       <c r="E85" t="n">
-        <v>69.48405431275654</v>
+        <v>81.31721930981652</v>
       </c>
       <c r="F85" t="n">
-        <v>9717.04498254739</v>
+        <v>4586.696038072301</v>
       </c>
       <c r="G85" t="n">
-        <v>8503.349120650926</v>
+        <v>3981.99090977016</v>
       </c>
       <c r="H85" t="n">
-        <v>0.06661194346413273</v>
+        <v>0.07057150436035031</v>
       </c>
       <c r="I85" t="n">
-        <v>0.5984848484848485</v>
+        <v>1.18796992481203</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Dinámico</t>
+          <t>Estático</t>
         </is>
       </c>
     </row>
@@ -3608,30 +3608,30 @@
         <v>0.00408997955010225</v>
       </c>
       <c r="C86" t="n">
-        <v>-36.08976135740618</v>
+        <v>-45.04598129653819</v>
       </c>
       <c r="D86" t="n">
-        <v>33.48875992429099</v>
+        <v>36.27372421202248</v>
       </c>
       <c r="E86" t="n">
-        <v>69.57852128169716</v>
+        <v>81.31970550856067</v>
       </c>
       <c r="F86" t="n">
-        <v>9609.667638125255</v>
+        <v>4586.6960380723</v>
       </c>
       <c r="G86" t="n">
-        <v>8420.75104071002</v>
+        <v>3981.990909770161</v>
       </c>
       <c r="H86" t="n">
-        <v>0.0659394891817363</v>
+        <v>0.07057150436035015</v>
       </c>
       <c r="I86" t="n">
-        <v>0.5984848484848485</v>
+        <v>1.18796992481203</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Dinámico</t>
+          <t>Estático</t>
         </is>
       </c>
     </row>
@@ -3645,30 +3645,30 @@
         <v>0.004138669782841562</v>
       </c>
       <c r="C87" t="n">
-        <v>-36.08246600508343</v>
+        <v>-47.41565127381638</v>
       </c>
       <c r="D87" t="n">
-        <v>33.47314163304711</v>
+        <v>37.42377024409378</v>
       </c>
       <c r="E87" t="n">
-        <v>69.55560763813054</v>
+        <v>84.83942151791015</v>
       </c>
       <c r="F87" t="n">
-        <v>10286.99976678534</v>
+        <v>5214.469534660189</v>
       </c>
       <c r="G87" t="n">
-        <v>9056.784288470744</v>
+        <v>4601.504585116908</v>
       </c>
       <c r="H87" t="n">
-        <v>0.06359745718833751</v>
+        <v>0.06244565664739148</v>
       </c>
       <c r="I87" t="n">
-        <v>0.5984848484848485</v>
+        <v>1.18796992481203</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Dinámico</t>
+          <t>Estático</t>
         </is>
       </c>
     </row>
@@ -3682,25 +3682,25 @@
         <v>0.004187360015580874</v>
       </c>
       <c r="C88" t="n">
-        <v>-38.36961367690849</v>
+        <v>-47.91741495122942</v>
       </c>
       <c r="D88" t="n">
-        <v>32.77437691471296</v>
+        <v>35.41459298978562</v>
       </c>
       <c r="E88" t="n">
-        <v>71.14399059162145</v>
+        <v>83.33200794101504</v>
       </c>
       <c r="F88" t="n">
-        <v>8990.153875519649</v>
+        <v>3876.324418820328</v>
       </c>
       <c r="G88" t="n">
-        <v>9020.323859584123</v>
+        <v>4515.485244707421</v>
       </c>
       <c r="H88" t="n">
-        <v>0.001675135135681084</v>
+        <v>0.07616483827856535</v>
       </c>
       <c r="I88" t="n">
-        <v>0.5984848484848485</v>
+        <v>1.172932330827068</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
@@ -3719,30 +3719,30 @@
         <v>0.004236050248320187</v>
       </c>
       <c r="C89" t="n">
-        <v>-37.26753306505837</v>
+        <v>-47.91305147147849</v>
       </c>
       <c r="D89" t="n">
-        <v>40.96802220029318</v>
+        <v>34.7843461525442</v>
       </c>
       <c r="E89" t="n">
-        <v>78.23555526535156</v>
+        <v>82.6973976240227</v>
       </c>
       <c r="F89" t="n">
-        <v>9667.48605141695</v>
+        <v>3934.143059485331</v>
       </c>
       <c r="G89" t="n">
-        <v>9689.396206887557</v>
+        <v>4589.82335080088</v>
       </c>
       <c r="H89" t="n">
-        <v>0.001131905188977775</v>
+        <v>0.07692197033112574</v>
       </c>
       <c r="I89" t="n">
-        <v>0.5984848484848485</v>
+        <v>1.172932330827068</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Dinámico</t>
+          <t>Estático</t>
         </is>
       </c>
     </row>
@@ -3756,30 +3756,30 @@
         <v>0.004284740481059499</v>
       </c>
       <c r="C90" t="n">
-        <v>-33.47323929517903</v>
+        <v>-51.7990426443677</v>
       </c>
       <c r="D90" t="n">
-        <v>35.27478317463581</v>
+        <v>34.7843461525442</v>
       </c>
       <c r="E90" t="n">
-        <v>68.74802246981486</v>
+        <v>86.5833887969119</v>
       </c>
       <c r="F90" t="n">
-        <v>9226.302543535377</v>
+        <v>4464.382608738821</v>
       </c>
       <c r="G90" t="n">
-        <v>8541.226669591106</v>
+        <v>4589.82335080088</v>
       </c>
       <c r="H90" t="n">
-        <v>0.03855774574655794</v>
+        <v>0.01385441667912272</v>
       </c>
       <c r="I90" t="n">
-        <v>0.5984848484848485</v>
+        <v>1.172932330827068</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Dinámico</t>
+          <t>Estático</t>
         </is>
       </c>
     </row>
@@ -3793,30 +3793,30 @@
         <v>0.004333430713798812</v>
       </c>
       <c r="C91" t="n">
-        <v>-34.89296342773132</v>
+        <v>-50.81946097303673</v>
       </c>
       <c r="D91" t="n">
-        <v>34.27695500718837</v>
+        <v>36.60796687785952</v>
       </c>
       <c r="E91" t="n">
-        <v>69.16991843491968</v>
+        <v>87.42742785089627</v>
       </c>
       <c r="F91" t="n">
-        <v>11027.02494350268</v>
+        <v>5034.337464661706</v>
       </c>
       <c r="G91" t="n">
-        <v>10304.64952732844</v>
+        <v>5138.99829198149</v>
       </c>
       <c r="H91" t="n">
-        <v>0.03386398086854447</v>
+        <v>0.01028775908152258</v>
       </c>
       <c r="I91" t="n">
-        <v>0.5984848484848485</v>
+        <v>1.172932330827068</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Dinámico</t>
+          <t>Estático</t>
         </is>
       </c>
     </row>
@@ -3830,30 +3830,30 @@
         <v>0.004382120946538125</v>
       </c>
       <c r="C92" t="n">
-        <v>-37.26831825757174</v>
+        <v>-50.81946097303673</v>
       </c>
       <c r="D92" t="n">
-        <v>35.35773069330847</v>
+        <v>36.55972431942033</v>
       </c>
       <c r="E92" t="n">
-        <v>72.6260489508802</v>
+        <v>87.37918529245707</v>
       </c>
       <c r="F92" t="n">
-        <v>11580.46023958916</v>
+        <v>5034.337464661706</v>
       </c>
       <c r="G92" t="n">
-        <v>10845.82568149748</v>
+        <v>5134.998920054169</v>
       </c>
       <c r="H92" t="n">
-        <v>0.03275774511556235</v>
+        <v>0.009898527453940176</v>
       </c>
       <c r="I92" t="n">
-        <v>0.5984848484848485</v>
+        <v>1.172932330827068</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Dinámico</t>
+          <t>Estático</t>
         </is>
       </c>
     </row>
@@ -3867,30 +3867,30 @@
         <v>0.004430811179277437</v>
       </c>
       <c r="C93" t="n">
-        <v>-34.97892849597359</v>
+        <v>-50.93449919132312</v>
       </c>
       <c r="D93" t="n">
-        <v>41.83313834024419</v>
+        <v>36.55972431942033</v>
       </c>
       <c r="E93" t="n">
-        <v>76.81206683621778</v>
+        <v>87.49422351074345</v>
       </c>
       <c r="F93" t="n">
-        <v>11596.97982404918</v>
+        <v>5050.857049121722</v>
       </c>
       <c r="G93" t="n">
-        <v>10829.3061090835</v>
+        <v>5134.998920054169</v>
       </c>
       <c r="H93" t="n">
-        <v>0.03423097864954575</v>
+        <v>0.008260657836422741</v>
       </c>
       <c r="I93" t="n">
-        <v>0.5984848484848485</v>
+        <v>1.172932330827068</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Dinámico</t>
+          <t>Estático</t>
         </is>
       </c>
     </row>
@@ -3904,30 +3904,30 @@
         <v>0.004479501412016749</v>
       </c>
       <c r="C94" t="n">
-        <v>-34.96896736047245</v>
+        <v>-50.93449919132312</v>
       </c>
       <c r="D94" t="n">
-        <v>35.86639432724088</v>
+        <v>36.75760200514777</v>
       </c>
       <c r="E94" t="n">
-        <v>70.83536168771334</v>
+        <v>87.6921011964709</v>
       </c>
       <c r="F94" t="n">
-        <v>11596.97982404918</v>
+        <v>5050.857049121722</v>
       </c>
       <c r="G94" t="n">
-        <v>10845.72743814605</v>
+        <v>5134.900676702739</v>
       </c>
       <c r="H94" t="n">
-        <v>0.03347423183515003</v>
+        <v>0.008251092343177979</v>
       </c>
       <c r="I94" t="n">
-        <v>0.5984848484848485</v>
+        <v>1.172932330827068</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Dinámico</t>
+          <t>Estático</t>
         </is>
       </c>
     </row>
@@ -3941,30 +3941,30 @@
         <v>0.004528191644756062</v>
       </c>
       <c r="C95" t="n">
-        <v>-36.19155918215291</v>
+        <v>-47.01021398012075</v>
       </c>
       <c r="D95" t="n">
-        <v>36.54703668640151</v>
+        <v>36.6011220310707</v>
       </c>
       <c r="E95" t="n">
-        <v>72.73859586855443</v>
+        <v>83.61133601119145</v>
       </c>
       <c r="F95" t="n">
-        <v>12166.93467997206</v>
+        <v>5620.811905044608</v>
       </c>
       <c r="G95" t="n">
-        <v>11390.90293852401</v>
+        <v>5696.595749494674</v>
       </c>
       <c r="H95" t="n">
-        <v>0.03294155236212178</v>
+        <v>0.006696219378443141</v>
       </c>
       <c r="I95" t="n">
-        <v>0.5984848484848485</v>
+        <v>1.172932330827068</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Dinámico</t>
+          <t>Estático</t>
         </is>
       </c>
     </row>
@@ -3978,30 +3978,30 @@
         <v>0.004576881877495375</v>
       </c>
       <c r="C96" t="n">
-        <v>-34.91332537632421</v>
+        <v>-50.38713525827617</v>
       </c>
       <c r="D96" t="n">
-        <v>36.35071566575213</v>
+        <v>36.65050672535064</v>
       </c>
       <c r="E96" t="n">
-        <v>71.26404104207634</v>
+        <v>87.0376419836268</v>
       </c>
       <c r="F96" t="n">
-        <v>12778.18853887641</v>
+        <v>6232.06576394895</v>
       </c>
       <c r="G96" t="n">
-        <v>11997.9946012593</v>
+        <v>6303.687412229958</v>
       </c>
       <c r="H96" t="n">
-        <v>0.03148967430553297</v>
+        <v>0.005713390115011754</v>
       </c>
       <c r="I96" t="n">
-        <v>0.5984848484848485</v>
+        <v>1.172932330827068</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Dinámico</t>
+          <t>Estático</t>
         </is>
       </c>
     </row>
@@ -4015,30 +4015,30 @@
         <v>0.004625572110234687</v>
       </c>
       <c r="C97" t="n">
-        <v>-37.27049473260969</v>
+        <v>-47.01021398012075</v>
       </c>
       <c r="D97" t="n">
-        <v>34.31442841425928</v>
+        <v>36.69650750798954</v>
       </c>
       <c r="E97" t="n">
-        <v>71.58492314686896</v>
+        <v>83.70672148811029</v>
       </c>
       <c r="F97" t="n">
-        <v>12166.93467997206</v>
+        <v>5620.811905044608</v>
       </c>
       <c r="G97" t="n">
-        <v>11395.00055380276</v>
+        <v>5700.693364773426</v>
       </c>
       <c r="H97" t="n">
-        <v>0.03276191528880748</v>
+        <v>0.007055727822851793</v>
       </c>
       <c r="I97" t="n">
-        <v>0.5984848484848485</v>
+        <v>1.172932330827068</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Dinámico</t>
+          <t>Estático</t>
         </is>
       </c>
     </row>
@@ -4052,30 +4052,30 @@
         <v>0.004674262342973999</v>
       </c>
       <c r="C98" t="n">
-        <v>-33.87915972809178</v>
+        <v>-47.33145992732283</v>
       </c>
       <c r="D98" t="n">
-        <v>34.27875717195464</v>
+        <v>36.69650750798954</v>
       </c>
       <c r="E98" t="n">
-        <v>68.15791690004642</v>
+        <v>84.02796743531238</v>
       </c>
       <c r="F98" t="n">
-        <v>12166.93467997206</v>
+        <v>5620.811905044607</v>
       </c>
       <c r="G98" t="n">
-        <v>11395.00055380276</v>
+        <v>5700.693364773426</v>
       </c>
       <c r="H98" t="n">
-        <v>0.03276191528880748</v>
+        <v>0.007055727822851874</v>
       </c>
       <c r="I98" t="n">
-        <v>0.5984848484848485</v>
+        <v>1.172932330827068</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Dinámico</t>
+          <t>Estático</t>
         </is>
       </c>
     </row>
@@ -4089,30 +4089,30 @@
         <v>0.004722952575713312</v>
       </c>
       <c r="C99" t="n">
-        <v>-36.19155918215291</v>
+        <v>-47.01021398012075</v>
       </c>
       <c r="D99" t="n">
-        <v>34.27875717195464</v>
+        <v>36.69650750798954</v>
       </c>
       <c r="E99" t="n">
-        <v>70.47031635410755</v>
+        <v>83.70672148811029</v>
       </c>
       <c r="F99" t="n">
-        <v>12166.93467997206</v>
+        <v>5620.811905044608</v>
       </c>
       <c r="G99" t="n">
-        <v>11395.00055380276</v>
+        <v>5700.693364773426</v>
       </c>
       <c r="H99" t="n">
-        <v>0.03276191528880748</v>
+        <v>0.007055727822851793</v>
       </c>
       <c r="I99" t="n">
-        <v>0.5984848484848485</v>
+        <v>1.172932330827068</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Dinámico</t>
+          <t>Estático</t>
         </is>
       </c>
     </row>
@@ -4126,30 +4126,30 @@
         <v>0.004771642808452625</v>
       </c>
       <c r="C100" t="n">
-        <v>-34.91332537632421</v>
+        <v>-50.38713525827617</v>
       </c>
       <c r="D100" t="n">
-        <v>36.35071566575213</v>
+        <v>36.65050672535064</v>
       </c>
       <c r="E100" t="n">
-        <v>71.26404104207634</v>
+        <v>87.0376419836268</v>
       </c>
       <c r="F100" t="n">
-        <v>12778.18853887641</v>
+        <v>6232.06576394895</v>
       </c>
       <c r="G100" t="n">
-        <v>11997.9946012593</v>
+        <v>6303.687412229958</v>
       </c>
       <c r="H100" t="n">
-        <v>0.03148967430553297</v>
+        <v>0.005713390115011754</v>
       </c>
       <c r="I100" t="n">
-        <v>0.5984848484848485</v>
+        <v>1.172932330827068</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
-          <t>Dinámico</t>
+          <t>Estático</t>
         </is>
       </c>
     </row>
@@ -4163,30 +4163,30 @@
         <v>0.004820333041191937</v>
       </c>
       <c r="C101" t="n">
-        <v>-37.263061327202</v>
+        <v>-46.1267772789347</v>
       </c>
       <c r="D101" t="n">
-        <v>42.06611925707102</v>
+        <v>36.680440720225</v>
       </c>
       <c r="E101" t="n">
-        <v>79.32918058427302</v>
+        <v>82.8072179991597</v>
       </c>
       <c r="F101" t="n">
-        <v>12166.93467997206</v>
+        <v>5620.811905044607</v>
       </c>
       <c r="G101" t="n">
-        <v>11395.00055380276</v>
+        <v>5700.693364773426</v>
       </c>
       <c r="H101" t="n">
-        <v>0.03276191528880748</v>
+        <v>0.007055727822851874</v>
       </c>
       <c r="I101" t="n">
-        <v>0.5984848484848485</v>
+        <v>1.172932330827068</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
-          <t>Dinámico</t>
+          <t>Estático</t>
         </is>
       </c>
     </row>
@@ -4200,30 +4200,30 @@
         <v>0.004869023273931249</v>
       </c>
       <c r="C102" t="n">
-        <v>-34.92721228675721</v>
+        <v>-50.38713525827617</v>
       </c>
       <c r="D102" t="n">
-        <v>34.2771307613918</v>
+        <v>36.65050672535064</v>
       </c>
       <c r="E102" t="n">
-        <v>69.20434304814901</v>
+        <v>87.0376419836268</v>
       </c>
       <c r="F102" t="n">
-        <v>12778.1885388764</v>
+        <v>6232.06576394895</v>
       </c>
       <c r="G102" t="n">
-        <v>11997.9946012593</v>
+        <v>6303.687412229958</v>
       </c>
       <c r="H102" t="n">
-        <v>0.0314896743055329</v>
+        <v>0.005713390115011754</v>
       </c>
       <c r="I102" t="n">
-        <v>0.5984848484848485</v>
+        <v>1.172932330827068</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Dinámico</t>
+          <t>Estático</t>
         </is>
       </c>
     </row>
@@ -4237,30 +4237,30 @@
         <v>0.004917713506670562</v>
       </c>
       <c r="C103" t="n">
-        <v>-34.6486744175417</v>
+        <v>-50.31030782300425</v>
       </c>
       <c r="D103" t="n">
-        <v>33.06116147303843</v>
+        <v>36.66502397679723</v>
       </c>
       <c r="E103" t="n">
-        <v>67.70983589058014</v>
+        <v>86.97533179980148</v>
       </c>
       <c r="F103" t="n">
-        <v>12778.18853887641</v>
+        <v>6232.06576394895</v>
       </c>
       <c r="G103" t="n">
-        <v>11997.99460125929</v>
+        <v>6303.687412229957</v>
       </c>
       <c r="H103" t="n">
-        <v>0.03148967430553305</v>
+        <v>0.005713390115011681</v>
       </c>
       <c r="I103" t="n">
-        <v>0.5984848484848485</v>
+        <v>1.172932330827068</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Dinámico</t>
+          <t>Estático</t>
         </is>
       </c>
     </row>
@@ -4274,30 +4274,30 @@
         <v>0.004966403739409875</v>
       </c>
       <c r="C104" t="n">
-        <v>-40.69476494007209</v>
+        <v>-50.23258753728437</v>
       </c>
       <c r="D104" t="n">
-        <v>36.35071566575213</v>
+        <v>36.65050672535064</v>
       </c>
       <c r="E104" t="n">
-        <v>77.04548060582422</v>
+        <v>86.88309426263501</v>
       </c>
       <c r="F104" t="n">
-        <v>12761.66895441639</v>
+        <v>6215.546179488935</v>
       </c>
       <c r="G104" t="n">
-        <v>11997.9946012593</v>
+        <v>6303.687412229958</v>
       </c>
       <c r="H104" t="n">
-        <v>0.03084348668308281</v>
+        <v>0.007040465544098915</v>
       </c>
       <c r="I104" t="n">
-        <v>0.5984848484848485</v>
+        <v>1.172932330827068</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Dinámico</t>
+          <t>Estático</t>
         </is>
       </c>
     </row>
@@ -4311,30 +4311,30 @@
         <v>0.005015093972149187</v>
       </c>
       <c r="C105" t="n">
-        <v>-34.38242676376005</v>
+        <v>-47.33145992732283</v>
       </c>
       <c r="D105" t="n">
-        <v>34.28439611003326</v>
+        <v>36.69650750798954</v>
       </c>
       <c r="E105" t="n">
-        <v>68.66682287379331</v>
+        <v>84.02796743531238</v>
       </c>
       <c r="F105" t="n">
-        <v>12166.93467997206</v>
+        <v>5620.811905044607</v>
       </c>
       <c r="G105" t="n">
-        <v>11395.00055380276</v>
+        <v>5700.693364773426</v>
       </c>
       <c r="H105" t="n">
-        <v>0.03276191528880748</v>
+        <v>0.007055727822851874</v>
       </c>
       <c r="I105" t="n">
-        <v>0.5984848484848485</v>
+        <v>1.172932330827068</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
-          <t>Dinámico</t>
+          <t>Estático</t>
         </is>
       </c>
     </row>
@@ -4348,30 +4348,30 @@
         <v>0.005063784204888499</v>
       </c>
       <c r="C106" t="n">
-        <v>-31.9241705398313</v>
+        <v>-50.5521010619336</v>
       </c>
       <c r="D106" t="n">
-        <v>34.27875717195464</v>
+        <v>36.69650750798954</v>
       </c>
       <c r="E106" t="n">
-        <v>66.20292771178595</v>
+        <v>87.24860856992314</v>
       </c>
       <c r="F106" t="n">
-        <v>12150.41509551205</v>
+        <v>5604.292320584591</v>
       </c>
       <c r="G106" t="n">
-        <v>11395.00055380276</v>
+        <v>5700.693364773426</v>
       </c>
       <c r="H106" t="n">
-        <v>0.03208329608448714</v>
+        <v>0.008527303516508789</v>
       </c>
       <c r="I106" t="n">
-        <v>0.5984848484848485</v>
+        <v>1.172932330827068</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Dinámico</t>
+          <t>Estático</t>
         </is>
       </c>
     </row>
@@ -4385,30 +4385,30 @@
         <v>0.005112474437627812</v>
       </c>
       <c r="C107" t="n">
-        <v>-37.2769107299316</v>
+        <v>-50.52075607704634</v>
       </c>
       <c r="D107" t="n">
-        <v>34.29099863955533</v>
+        <v>36.680440720225</v>
       </c>
       <c r="E107" t="n">
-        <v>71.56790936948693</v>
+        <v>87.20119679727134</v>
       </c>
       <c r="F107" t="n">
-        <v>12150.41509551205</v>
+        <v>5604.292320584591</v>
       </c>
       <c r="G107" t="n">
-        <v>11395.00055380276</v>
+        <v>5700.693364773426</v>
       </c>
       <c r="H107" t="n">
-        <v>0.03208329608448714</v>
+        <v>0.008527303516508789</v>
       </c>
       <c r="I107" t="n">
-        <v>0.5984848484848485</v>
+        <v>1.172932330827068</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
-          <t>Dinámico</t>
+          <t>Estático</t>
         </is>
       </c>
     </row>
@@ -4422,30 +4422,30 @@
         <v>0.005161164670367124</v>
       </c>
       <c r="C108" t="n">
-        <v>-37.21199413792516</v>
+        <v>-50.33132589377095</v>
       </c>
       <c r="D108" t="n">
-        <v>34.2771307613918</v>
+        <v>36.65050672535064</v>
       </c>
       <c r="E108" t="n">
-        <v>71.48912489931695</v>
+        <v>86.98183261912159</v>
       </c>
       <c r="F108" t="n">
-        <v>12761.27933485101</v>
+        <v>6215.156559923561</v>
       </c>
       <c r="G108" t="n">
-        <v>11997.9946012593</v>
+        <v>6303.687412229958</v>
       </c>
       <c r="H108" t="n">
-        <v>0.03082823573749885</v>
+        <v>0.007071807309310809</v>
       </c>
       <c r="I108" t="n">
-        <v>0.5984848484848485</v>
+        <v>1.172932330827068</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
-          <t>Dinámico</t>
+          <t>Estático</t>
         </is>
       </c>
     </row>
@@ -4459,30 +4459,30 @@
         <v>0.005209854903106437</v>
       </c>
       <c r="C109" t="n">
-        <v>-29.73994453678337</v>
+        <v>-48.06057724182771</v>
       </c>
       <c r="D109" t="n">
-        <v>34.27875717195464</v>
+        <v>36.69650750798954</v>
       </c>
       <c r="E109" t="n">
-        <v>64.01870170873801</v>
+        <v>84.75708474981724</v>
       </c>
       <c r="F109" t="n">
-        <v>12154.52439570228</v>
+        <v>5608.401620774829</v>
       </c>
       <c r="G109" t="n">
-        <v>11395.00055380276</v>
+        <v>5700.693364773426</v>
       </c>
       <c r="H109" t="n">
-        <v>0.03225219377155567</v>
+        <v>0.008160842588777898</v>
       </c>
       <c r="I109" t="n">
-        <v>0.5984848484848485</v>
+        <v>1.172932330827068</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
-          <t>Dinámico</t>
+          <t>Estático</t>
         </is>
       </c>
     </row>
@@ -4496,30 +4496,30 @@
         <v>0.005258545135845749</v>
       </c>
       <c r="C110" t="n">
-        <v>-31.92405723407942</v>
+        <v>-50.5521010619336</v>
       </c>
       <c r="D110" t="n">
-        <v>34.28690148757549</v>
+        <v>36.69650750798954</v>
       </c>
       <c r="E110" t="n">
-        <v>66.21095872165492</v>
+        <v>87.24860856992314</v>
       </c>
       <c r="F110" t="n">
-        <v>12150.41509551205</v>
+        <v>5604.292320584591</v>
       </c>
       <c r="G110" t="n">
-        <v>11395.00055380276</v>
+        <v>5700.693364773426</v>
       </c>
       <c r="H110" t="n">
-        <v>0.03208329608448714</v>
+        <v>0.008527303516508789</v>
       </c>
       <c r="I110" t="n">
-        <v>0.5984848484848485</v>
+        <v>1.172932330827068</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
-          <t>Dinámico</t>
+          <t>Estático</t>
         </is>
       </c>
     </row>
@@ -4533,30 +4533,30 @@
         <v>0.005307235368585062</v>
       </c>
       <c r="C111" t="n">
-        <v>-31.9126174511536</v>
+        <v>-50.5521010619336</v>
       </c>
       <c r="D111" t="n">
-        <v>34.28671225546513</v>
+        <v>36.69650750798954</v>
       </c>
       <c r="E111" t="n">
-        <v>66.19932970661873</v>
+        <v>87.24860856992314</v>
       </c>
       <c r="F111" t="n">
-        <v>12150.41509551205</v>
+        <v>5604.292320584591</v>
       </c>
       <c r="G111" t="n">
-        <v>11395.00055380276</v>
+        <v>5700.693364773426</v>
       </c>
       <c r="H111" t="n">
-        <v>0.03208329608448714</v>
+        <v>0.008527303516508789</v>
       </c>
       <c r="I111" t="n">
-        <v>0.5984848484848485</v>
+        <v>1.172932330827068</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
-          <t>Dinámico</t>
+          <t>Estático</t>
         </is>
       </c>
     </row>
@@ -4570,30 +4570,30 @@
         <v>0.005355925601324374</v>
       </c>
       <c r="C112" t="n">
-        <v>-34.76353184530294</v>
+        <v>-50.653681013032</v>
       </c>
       <c r="D112" t="n">
-        <v>34.2771307613918</v>
+        <v>36.65050672535064</v>
       </c>
       <c r="E112" t="n">
-        <v>69.04066260669472</v>
+        <v>87.30418773838264</v>
       </c>
       <c r="F112" t="n">
-        <v>12744.75984707524</v>
+        <v>6198.63707214779</v>
       </c>
       <c r="G112" t="n">
-        <v>11997.9946012593</v>
+        <v>6303.687412229958</v>
       </c>
       <c r="H112" t="n">
-        <v>0.03018116868820212</v>
+        <v>0.008402464694740047</v>
       </c>
       <c r="I112" t="n">
-        <v>0.5984848484848485</v>
+        <v>1.172932330827068</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
-          <t>Dinámico</t>
+          <t>Estático</t>
         </is>
       </c>
     </row>
@@ -4607,30 +4607,30 @@
         <v>0.005404615834063687</v>
       </c>
       <c r="C113" t="n">
-        <v>-36.78619395918629</v>
+        <v>-50.21241088570708</v>
       </c>
       <c r="D113" t="n">
-        <v>34.27875717195464</v>
+        <v>36.69650750798954</v>
       </c>
       <c r="E113" t="n">
-        <v>71.06495113114093</v>
+        <v>86.90891839369661</v>
       </c>
       <c r="F113" t="n">
-        <v>12133.89560773627</v>
+        <v>5587.77283280882</v>
       </c>
       <c r="G113" t="n">
-        <v>11395.00055380276</v>
+        <v>5700.693364773426</v>
       </c>
       <c r="H113" t="n">
-        <v>0.03140372794629144</v>
+        <v>0.01000317757861484</v>
       </c>
       <c r="I113" t="n">
-        <v>0.5984848484848485</v>
+        <v>1.172932330827068</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
-          <t>Dinámico</t>
+          <t>Estático</t>
         </is>
       </c>
     </row>
@@ -4644,30 +4644,30 @@
         <v>0.005453306066803</v>
       </c>
       <c r="C114" t="n">
-        <v>-34.57466221880571</v>
+        <v>-50.25328027825365</v>
       </c>
       <c r="D114" t="n">
-        <v>34.28690148757549</v>
+        <v>36.69650750798954</v>
       </c>
       <c r="E114" t="n">
-        <v>68.8615637063812</v>
+        <v>86.94978778624318</v>
       </c>
       <c r="F114" t="n">
-        <v>12116.98650039513</v>
+        <v>5587.383213243446</v>
       </c>
       <c r="G114" t="n">
-        <v>11395.00055380276</v>
+        <v>5700.693364773426</v>
       </c>
       <c r="H114" t="n">
-        <v>0.03070714291089506</v>
+        <v>0.01003803887640584</v>
       </c>
       <c r="I114" t="n">
-        <v>0.5984848484848485</v>
+        <v>1.172932330827068</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
-          <t>Dinámico</t>
+          <t>Estático</t>
         </is>
       </c>
     </row>
@@ -4681,30 +4681,30 @@
         <v>0.005501996299542311</v>
       </c>
       <c r="C115" t="n">
-        <v>-39.86045365265574</v>
+        <v>-50.21241088570708</v>
       </c>
       <c r="D115" t="n">
-        <v>34.28690148757549</v>
+        <v>36.69650750798954</v>
       </c>
       <c r="E115" t="n">
-        <v>74.14735514023123</v>
+        <v>86.90891839369661</v>
       </c>
       <c r="F115" t="n">
-        <v>12133.89560773627</v>
+        <v>5587.77283280882</v>
       </c>
       <c r="G115" t="n">
-        <v>11395.00055380276</v>
+        <v>5700.693364773426</v>
       </c>
       <c r="H115" t="n">
-        <v>0.03140372794629144</v>
+        <v>0.01000317757861484</v>
       </c>
       <c r="I115" t="n">
-        <v>0.5984848484848485</v>
+        <v>1.172932330827068</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
-          <t>Dinámico</t>
+          <t>Estático</t>
         </is>
       </c>
     </row>
@@ -4718,30 +4718,30 @@
         <v>0.005550686532281624</v>
       </c>
       <c r="C116" t="n">
-        <v>-35.08507677615906</v>
+        <v>-50.14208308327164</v>
       </c>
       <c r="D116" t="n">
-        <v>34.29099863955533</v>
+        <v>36.680440720225</v>
       </c>
       <c r="E116" t="n">
-        <v>69.37607541571438</v>
+        <v>86.82252380349664</v>
       </c>
       <c r="F116" t="n">
-        <v>12138.00490792651</v>
+        <v>5591.882132999059</v>
       </c>
       <c r="G116" t="n">
-        <v>11395.00055380276</v>
+        <v>5700.693364773426</v>
       </c>
       <c r="H116" t="n">
-        <v>0.03157286285987</v>
+        <v>0.009635643507172536</v>
       </c>
       <c r="I116" t="n">
-        <v>0.5984848484848485</v>
+        <v>1.172932330827068</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
-          <t>Dinámico</t>
+          <t>Estático</t>
         </is>
       </c>
     </row>
@@ -4755,30 +4755,30 @@
         <v>0.005599376765020937</v>
       </c>
       <c r="C117" t="n">
-        <v>-34.75631055177935</v>
+        <v>-50.25328027825365</v>
       </c>
       <c r="D117" t="n">
-        <v>34.27875717195464</v>
+        <v>36.69650750798954</v>
       </c>
       <c r="E117" t="n">
-        <v>69.03506772373399</v>
+        <v>86.94978778624318</v>
       </c>
       <c r="F117" t="n">
-        <v>12133.5059881709</v>
+        <v>5587.383213243446</v>
       </c>
       <c r="G117" t="n">
-        <v>11395.00055380276</v>
+        <v>5700.693364773426</v>
       </c>
       <c r="H117" t="n">
-        <v>0.03138768850673469</v>
+        <v>0.01003803887640584</v>
       </c>
       <c r="I117" t="n">
-        <v>0.5984848484848485</v>
+        <v>1.172932330827068</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Dinámico</t>
+          <t>Estático</t>
         </is>
       </c>
     </row>
@@ -4792,30 +4792,30 @@
         <v>0.00564806699776025</v>
       </c>
       <c r="C118" t="n">
-        <v>-34.75685550802883</v>
+        <v>-50.25328027825365</v>
       </c>
       <c r="D118" t="n">
-        <v>34.28690148757549</v>
+        <v>36.69650750798954</v>
       </c>
       <c r="E118" t="n">
-        <v>69.04375699560433</v>
+        <v>86.94978778624318</v>
       </c>
       <c r="F118" t="n">
-        <v>12133.5059881709</v>
+        <v>5587.383213243446</v>
       </c>
       <c r="G118" t="n">
-        <v>11395.00055380276</v>
+        <v>5700.693364773426</v>
       </c>
       <c r="H118" t="n">
-        <v>0.03138768850673469</v>
+        <v>0.01003803887640584</v>
       </c>
       <c r="I118" t="n">
-        <v>0.5984848484848485</v>
+        <v>1.172932330827068</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
-          <t>Dinámico</t>
+          <t>Estático</t>
         </is>
       </c>
     </row>
@@ -4829,30 +4829,30 @@
         <v>0.005696757230499561</v>
       </c>
       <c r="C119" t="n">
-        <v>-33.7557807632365</v>
+        <v>-50.12230422761311</v>
       </c>
       <c r="D119" t="n">
-        <v>33.06895216624191</v>
+        <v>36.61593139248585</v>
       </c>
       <c r="E119" t="n">
-        <v>66.82473292947842</v>
+        <v>86.73823562009895</v>
       </c>
       <c r="F119" t="n">
-        <v>10952.29719549654</v>
+        <v>4959.609716655558</v>
       </c>
       <c r="G119" t="n">
-        <v>10230.31135235965</v>
+        <v>5081.179689426679</v>
       </c>
       <c r="H119" t="n">
-        <v>0.03408389677341946</v>
+        <v>0.01210761105072868</v>
       </c>
       <c r="I119" t="n">
-        <v>0.5984848484848485</v>
+        <v>1.172932330827068</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
-          <t>Dinámico</t>
+          <t>Estático</t>
         </is>
       </c>
     </row>
@@ -4866,30 +4866,30 @@
         <v>0.005745447463238874</v>
       </c>
       <c r="C120" t="n">
-        <v>-31.58207646563723</v>
+        <v>-50.12979630345442</v>
       </c>
       <c r="D120" t="n">
-        <v>34.30380417123584</v>
+        <v>36.61593139248585</v>
       </c>
       <c r="E120" t="n">
-        <v>65.88588063687307</v>
+        <v>86.74572769594027</v>
       </c>
       <c r="F120" t="n">
-        <v>11493.32230399748</v>
+        <v>4963.719016845796</v>
       </c>
       <c r="G120" t="n">
-        <v>10775.48687845601</v>
+        <v>5081.179689426679</v>
       </c>
       <c r="H120" t="n">
-        <v>0.03223501623549224</v>
+        <v>0.0116935646655685</v>
       </c>
       <c r="I120" t="n">
-        <v>0.5984848484848485</v>
+        <v>1.172932330827068</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
-          <t>Dinámico</t>
+          <t>Estático</t>
         </is>
       </c>
     </row>
@@ -4903,30 +4903,30 @@
         <v>0.005794137695978187</v>
       </c>
       <c r="C121" t="n">
-        <v>-32.57427506937946</v>
+        <v>-50.18873213865904</v>
       </c>
       <c r="D121" t="n">
-        <v>28.96299710960345</v>
+        <v>36.68916982261929</v>
       </c>
       <c r="E121" t="n">
-        <v>61.53727217898292</v>
+        <v>86.87790196127833</v>
       </c>
       <c r="F121" t="n">
-        <v>12121.09580058537</v>
+        <v>5591.492513433685</v>
       </c>
       <c r="G121" t="n">
-        <v>11395.00055380276</v>
+        <v>5700.693364773426</v>
       </c>
       <c r="H121" t="n">
-        <v>0.03087652116407136</v>
+        <v>0.009670479437509883</v>
       </c>
       <c r="I121" t="n">
-        <v>0.5984848484848485</v>
+        <v>1.172932330827068</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
-          <t>Dinámico</t>
+          <t>Estático</t>
         </is>
       </c>
     </row>
@@ -4940,30 +4940,30 @@
         <v>0.0058428279287175</v>
       </c>
       <c r="C122" t="n">
-        <v>-31.58207646563723</v>
+        <v>-50.12979630345442</v>
       </c>
       <c r="D122" t="n">
-        <v>34.30380417123584</v>
+        <v>36.61593139248585</v>
       </c>
       <c r="E122" t="n">
-        <v>65.88588063687307</v>
+        <v>86.74572769594027</v>
       </c>
       <c r="F122" t="n">
-        <v>11493.32230399748</v>
+        <v>4963.719016845796</v>
       </c>
       <c r="G122" t="n">
-        <v>10775.48687845601</v>
+        <v>5081.179689426679</v>
       </c>
       <c r="H122" t="n">
-        <v>0.03223501623549224</v>
+        <v>0.0116935646655685</v>
       </c>
       <c r="I122" t="n">
-        <v>0.5984848484848485</v>
+        <v>1.172932330827068</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
-          <t>Dinámico</t>
+          <t>Estático</t>
         </is>
       </c>
     </row>
@@ -4977,30 +4977,30 @@
         <v>0.005891518161456812</v>
       </c>
       <c r="C123" t="n">
-        <v>-31.58207646563723</v>
+        <v>-50.12979630345442</v>
       </c>
       <c r="D123" t="n">
-        <v>34.30380417123584</v>
+        <v>36.61593139248585</v>
       </c>
       <c r="E123" t="n">
-        <v>65.88588063687307</v>
+        <v>86.74572769594027</v>
       </c>
       <c r="F123" t="n">
-        <v>11493.32230399748</v>
+        <v>4963.719016845796</v>
       </c>
       <c r="G123" t="n">
-        <v>10775.48687845601</v>
+        <v>5081.179689426679</v>
       </c>
       <c r="H123" t="n">
-        <v>0.03223501623549224</v>
+        <v>0.0116935646655685</v>
       </c>
       <c r="I123" t="n">
-        <v>0.5984848484848485</v>
+        <v>1.172932330827068</v>
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
-          <t>Dinámico</t>
+          <t>Estático</t>
         </is>
       </c>
     </row>
@@ -5014,30 +5014,30 @@
         <v>0.005940208394196124</v>
       </c>
       <c r="C124" t="n">
-        <v>-32.57710136609152</v>
+        <v>-50.12979630345442</v>
       </c>
       <c r="D124" t="n">
-        <v>33.60521084840538</v>
+        <v>36.61593139248585</v>
       </c>
       <c r="E124" t="n">
-        <v>66.1823122144969</v>
+        <v>86.74572769594027</v>
       </c>
       <c r="F124" t="n">
-        <v>11493.32230399748</v>
+        <v>4963.719016845796</v>
       </c>
       <c r="G124" t="n">
-        <v>10775.48687845601</v>
+        <v>5081.179689426679</v>
       </c>
       <c r="H124" t="n">
-        <v>0.03223501623549224</v>
+        <v>0.0116935646655685</v>
       </c>
       <c r="I124" t="n">
-        <v>0.5984848484848485</v>
+        <v>1.172932330827068</v>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
-          <t>Dinámico</t>
+          <t>Estático</t>
         </is>
       </c>
     </row>
@@ -5051,30 +5051,30 @@
         <v>0.005988898626935437</v>
       </c>
       <c r="C125" t="n">
-        <v>-31.58207646563723</v>
+        <v>-50.12979630345442</v>
       </c>
       <c r="D125" t="n">
-        <v>34.30380417123584</v>
+        <v>36.61593139248585</v>
       </c>
       <c r="E125" t="n">
-        <v>65.88588063687307</v>
+        <v>86.74572769594027</v>
       </c>
       <c r="F125" t="n">
-        <v>11493.32230399748</v>
+        <v>4963.719016845796</v>
       </c>
       <c r="G125" t="n">
-        <v>10775.48687845601</v>
+        <v>5081.179689426679</v>
       </c>
       <c r="H125" t="n">
-        <v>0.03223501623549224</v>
+        <v>0.0116935646655685</v>
       </c>
       <c r="I125" t="n">
-        <v>0.5984848484848485</v>
+        <v>1.172932330827068</v>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
-          <t>Dinámico</t>
+          <t>Estático</t>
         </is>
       </c>
     </row>
@@ -5088,30 +5088,30 @@
         <v>0.006037588859674749</v>
       </c>
       <c r="C126" t="n">
-        <v>-32.57427506937946</v>
+        <v>-50.18873213865904</v>
       </c>
       <c r="D126" t="n">
-        <v>34.31269489076682</v>
+        <v>36.56022706901613</v>
       </c>
       <c r="E126" t="n">
-        <v>66.88696996014627</v>
+        <v>86.74895920767517</v>
       </c>
       <c r="F126" t="n">
-        <v>12121.09580058537</v>
+        <v>5591.492513433685</v>
       </c>
       <c r="G126" t="n">
-        <v>11395.00055380276</v>
+        <v>5700.693364773426</v>
       </c>
       <c r="H126" t="n">
-        <v>0.03087652116407136</v>
+        <v>0.009670479437509883</v>
       </c>
       <c r="I126" t="n">
-        <v>0.5984848484848485</v>
+        <v>1.172932330827068</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
-          <t>Dinámico</t>
+          <t>Estático</t>
         </is>
       </c>
     </row>
@@ -5125,30 +5125,30 @@
         <v>0.006086279092414062</v>
       </c>
       <c r="C127" t="n">
-        <v>-31.58207646563723</v>
+        <v>-50.12979630345442</v>
       </c>
       <c r="D127" t="n">
-        <v>34.30380417123584</v>
+        <v>36.61593139248585</v>
       </c>
       <c r="E127" t="n">
-        <v>65.88588063687307</v>
+        <v>86.74572769594027</v>
       </c>
       <c r="F127" t="n">
-        <v>11493.32230399748</v>
+        <v>4963.719016845796</v>
       </c>
       <c r="G127" t="n">
-        <v>10775.48687845601</v>
+        <v>5081.179689426679</v>
       </c>
       <c r="H127" t="n">
-        <v>0.03223501623549224</v>
+        <v>0.0116935646655685</v>
       </c>
       <c r="I127" t="n">
-        <v>0.5984848484848485</v>
+        <v>1.172932330827068</v>
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
-          <t>Dinámico</t>
+          <t>Estático</t>
         </is>
       </c>
     </row>
